--- a/company_tags/Facebook Leetcode High Freq.xlsx
+++ b/company_tags/Facebook Leetcode High Freq.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yifanfei/Desktop/Learning/LCEveryday/company_tags/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD587B93-543F-AE4A-9BF9-E184C3D6A3B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492AFD7F-5299-DB45-9D78-B48DF8046966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34400" yWindow="1860" windowWidth="28040" windowHeight="17440" xr2:uid="{D3FF114E-0F42-894E-BDDD-DD46A60F80A2}"/>
+    <workbookView xWindow="37000" yWindow="3100" windowWidth="28040" windowHeight="17440" xr2:uid="{D3FF114E-0F42-894E-BDDD-DD46A60F80A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$H$176</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,14 +37,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="357">
   <si>
     <t>Minimum Remove to Make Valid Parentheses</t>
   </si>
   <si>
+    <t>Medium</t>
+  </si>
+  <si>
     <t>Valid Palindrome II</t>
   </si>
   <si>
+    <t>Easy</t>
+  </si>
+  <si>
     <t>Buildings With an Ocean View</t>
   </si>
   <si>
@@ -66,6 +75,9 @@
     <t>Making A Large Island</t>
   </si>
   <si>
+    <t>Hard</t>
+  </si>
+  <si>
     <t>Subarray Sum Equals K</t>
   </si>
   <si>
@@ -199,9 +211,6 @@
   </si>
   <si>
     <t>Capacity To Ship Packages Within D Days</t>
-  </si>
-  <si>
-    <t>Recyclable and Low Fat Products</t>
   </si>
   <si>
     <t>Pow(x, n)</t>
@@ -394,9 +403,6 @@
     </r>
   </si>
   <si>
-    <t>union find</t>
-  </si>
-  <si>
     <t>AC, topo-sort</t>
   </si>
   <si>
@@ -415,6 +421,9 @@
   <si>
     <t>A small typo, i++ in the loop
 quick select O(n)</t>
+  </si>
+  <si>
+    <t>AC</t>
   </si>
   <si>
     <t>Review, level BFS, append when I = size-1</t>
@@ -485,9 +494,6 @@
 # sort keys by y then x</t>
   </si>
   <si>
-    <t>AC, presum, d[0] = -1(index), only record leftmost index</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">AC, hash table + encoding, ord(), </t>
     </r>
@@ -502,13 +508,1118 @@
       <t>%26</t>
     </r>
   </si>
+  <si>
+    <t>Index issue. Do it again(except itself)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TLE, pre-cal: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>half = self.myPow(x, n//2)</t>
+    </r>
+  </si>
+  <si>
+    <t>AC, union find, email2name, email2idx = {}, {}</t>
+  </si>
+  <si>
+    <t>1st  round</t>
+  </si>
+  <si>
+    <t>freq = defaultdict(int)
+        for i in range(n * n):
+            freq[dsu.find(i)] += 1
+cand = 1, seen = set()</t>
+  </si>
+  <si>
+    <t>Hash table, scan in the order of order, set visited to 0</t>
+  </si>
+  <si>
+    <t>AC, 3 ptrs # O(n+m)/O(1)
+i, j, k = m - 1, n - 1, m + n - 1</t>
+  </si>
+  <si>
+    <t>AC, freq &amp; 1: # odd</t>
+  </si>
+  <si>
+    <t>Binary search is the optimal soln</t>
+  </si>
+  <si>
+    <t>AC, divide&amp;conquer, or Heap</t>
+  </si>
+  <si>
+    <t>Do it again with 2 ptrs</t>
+  </si>
+  <si>
+    <t>greedy, for each 000-&gt;010</t>
+  </si>
+  <si>
+    <t>AC, deque # O(1)/O(n)</t>
+  </si>
+  <si>
+    <t>prefix sum + binary search</t>
+  </si>
+  <si>
+    <t>Do it again.</t>
+  </si>
+  <si>
+    <t>Max Area of Island</t>
+  </si>
+  <si>
+    <t>Maximum Level Sum of a Binary Tree</t>
+  </si>
+  <si>
+    <t>Knight Dialer</t>
+  </si>
+  <si>
+    <t>Meeting Rooms II</t>
+  </si>
+  <si>
+    <t>3Sum Closest</t>
+  </si>
+  <si>
+    <t>Remove Nth Node From End of List</t>
+  </si>
+  <si>
+    <t>Combination Sum</t>
+  </si>
+  <si>
+    <t>Reorganize String</t>
+  </si>
+  <si>
+    <t>Range Module</t>
+  </si>
+  <si>
+    <t>Shortest Path in Binary Matrix</t>
+  </si>
+  <si>
+    <t>Design Add and Search Words Data Structure</t>
+  </si>
+  <si>
+    <t>Subsets</t>
+  </si>
+  <si>
+    <t>Walls and Gates</t>
+  </si>
+  <si>
+    <t>Valid Palindrome III</t>
+  </si>
+  <si>
+    <t>Goat Latin</t>
+  </si>
+  <si>
+    <t>Beautiful Array</t>
+  </si>
+  <si>
+    <t>Palindrome Linked List</t>
+  </si>
+  <si>
+    <t>Smallest Subtree with all the Deepest Nodes</t>
+  </si>
+  <si>
+    <t>Serialize and Deserialize Binary Tree</t>
+  </si>
+  <si>
+    <t>Average of Levels in Binary Tree</t>
+  </si>
+  <si>
+    <t>Add Bold Tag in String</t>
+  </si>
+  <si>
+    <t>String Compression</t>
+  </si>
+  <si>
+    <t>Next Closest Time</t>
+  </si>
+  <si>
+    <t>Shortest Bridge</t>
+  </si>
+  <si>
+    <t>Palindromic Substrings</t>
+  </si>
+  <si>
+    <t>Stickers to Spell Word</t>
+  </si>
+  <si>
+    <t>Flatten Nested List Iterator</t>
+  </si>
+  <si>
+    <t>Monotonic Array</t>
+  </si>
+  <si>
+    <t>Detect Cycles in 2D Grid</t>
+  </si>
+  <si>
+    <t>Is Graph Bipartite?</t>
+  </si>
+  <si>
+    <t>Total Hamming Distance</t>
+  </si>
+  <si>
+    <t>Binary Tree Longest Consecutive Sequence</t>
+  </si>
+  <si>
+    <t>Design Tic-Tac-Toe</t>
+  </si>
+  <si>
+    <t>Multiply Strings</t>
+  </si>
+  <si>
+    <t>Diagonal Traverse II</t>
+  </si>
+  <si>
+    <t>Strings Differ by One Character</t>
+  </si>
+  <si>
+    <t>Next Greater Element III</t>
+  </si>
+  <si>
+    <t>Longest Increasing Path in a Matrix</t>
+  </si>
+  <si>
+    <t>Number of Visible People in a Queue</t>
+  </si>
+  <si>
+    <t>Missing Element in Sorted Array</t>
+  </si>
+  <si>
+    <t>Swim in Rising Water</t>
+  </si>
+  <si>
+    <t>Lowest Common Ancestor of Deepest Leaves</t>
+  </si>
+  <si>
+    <t>Kth Smallest Element in a Sorted Matrix</t>
+  </si>
+  <si>
+    <t>My Calendar III</t>
+  </si>
+  <si>
+    <t>Number of Distinct Islands</t>
+  </si>
+  <si>
+    <t>Inorder Successor in BST II</t>
+  </si>
+  <si>
+    <t>Longest Substring with At Most K Distinct Characters</t>
+  </si>
+  <si>
+    <t>Next Greater Element II</t>
+  </si>
+  <si>
+    <t>Shortest Unsorted Continuous Subarray</t>
+  </si>
+  <si>
+    <t>Number of Calls Between Two Persons</t>
+  </si>
+  <si>
+    <t>Longest Arithmetic Subsequence</t>
+  </si>
+  <si>
+    <t>Maximum Nesting Depth of the Parentheses</t>
+  </si>
+  <si>
+    <t>Delete Nodes And Return Forest</t>
+  </si>
+  <si>
+    <t>All Elements in Two Binary Search Trees</t>
+  </si>
+  <si>
+    <t>Populating Next Right Pointers in Each Node</t>
+  </si>
+  <si>
+    <t>Sliding Window Maximum</t>
+  </si>
+  <si>
+    <t>Robot Room Cleaner</t>
+  </si>
+  <si>
+    <t>Check Completeness of a Binary Tree</t>
+  </si>
+  <si>
+    <t>First Unique Character in a String</t>
+  </si>
+  <si>
+    <t>Target Sum</t>
+  </si>
+  <si>
+    <t>Daily Temperatures</t>
+  </si>
+  <si>
+    <t>Generate Parentheses</t>
+  </si>
+  <si>
+    <t>Bus Routes</t>
+  </si>
+  <si>
+    <t>Minimum Insertions to Balance a Parentheses String</t>
+  </si>
+  <si>
+    <t>Regular Expression Matching</t>
+  </si>
+  <si>
+    <t>Egg Drop With 2 Eggs and N Floors</t>
+  </si>
+  <si>
+    <t>Read N Characters Given Read4</t>
+  </si>
+  <si>
+    <t>Median of Two Sorted Arrays</t>
+  </si>
+  <si>
+    <t>Number of Ways to Stay in the Same Place After Some Steps</t>
+  </si>
+  <si>
+    <t>Minimum Area Rectangle</t>
+  </si>
+  <si>
+    <t>Island Perimeter</t>
+  </si>
+  <si>
+    <t>Path Sum II</t>
+  </si>
+  <si>
+    <t>Partition Equal Subset Sum</t>
+  </si>
+  <si>
+    <t>Intersection of Three Sorted Arrays</t>
+  </si>
+  <si>
+    <t>Backspace String Compare</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Failed, l, r = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>max</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(weights), sum(weights)</t>
+    </r>
+  </si>
+  <si>
+    <t>AC, return dec == n - 1 or inc == n - 1</t>
+  </si>
+  <si>
+    <t>AC, but try O(1) space next time</t>
+  </si>
+  <si>
+    <t>AC, sweep or heap
+intervals.sort() # sort by start time
+hq = [] # store end time, pop when no overlap</t>
+  </si>
+  <si>
+    <t>AC, take or no take</t>
+  </si>
+  <si>
+    <t>Review again. grid[x][y] = 0 marked as visited</t>
+  </si>
+  <si>
+    <t>pass first_num in 2sum()
+if abs(tmp - target) &lt; abs(self.res - target):
+if self.res == target, early stop
+O(nlogn+n^2) / O(sort)</t>
+  </si>
+  <si>
+    <t>AC, # time: O(n^(target/min+1))
+aka maximal depth of the tree
+# space: O(target/min)</t>
+  </si>
+  <si>
+    <t>2 ptrs, cnt = 0 in inner while loop for j</t>
+  </si>
+  <si>
+    <t>O(n) linear scan s with counter()</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AC with O(2n) space , </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>try O(n) space,  A[i % n]</t>
+    </r>
+  </si>
+  <si>
+    <t>AC, x+y is a fixed num. res += dic[k][::-1]</t>
+  </si>
+  <si>
+    <t>inorder traverse then divide&amp;conquer
+build_BST(v[:mid])</t>
+  </si>
+  <si>
+    <t>AC, sliding win+counter, update i then update res at the end of loop</t>
+  </si>
+  <si>
+    <t>https://www.nayuki.io/page/next-lexicographical-permutation-algorithm</t>
+  </si>
+  <si>
+    <t>hour_angle=(hour mod 12+minutes/60)×30°</t>
+  </si>
+  <si>
+    <t>AC, rows, cols, diag, adiag</t>
+  </si>
+  <si>
+    <t>AC, count left (</t>
+  </si>
+  <si>
+    <t>preorder traversal and preorder decompose</t>
+  </si>
+  <si>
+    <t>AC, Similar with 987, but order from left to right</t>
+  </si>
+  <si>
+    <r>
+      <t>stack.append(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(stack.pop() / num)), prev_sign='+'</t>
+    </r>
+  </si>
+  <si>
+    <t>corner case grid[0][0] = 1 return -1</t>
+  </si>
+  <si>
+    <t>AC, presum</t>
+  </si>
+  <si>
+    <t>AC, return max1 + 1, update (max1+max2)</t>
+  </si>
+  <si>
+    <t>O(n) scan, append(upper+1), prev=lower-1</t>
+  </si>
+  <si>
+    <t>stack O(n)/O(n) is not optimal, try space O(1)
+return unmatch_right + bal(unmatch_left)</t>
+  </si>
+  <si>
+    <t>cnt += ribbon // length
+l, r = 1, max(ribbons) + 1
+return l - 1</t>
+  </si>
+  <si>
+    <t>Do it without dict once more</t>
+  </si>
+  <si>
+    <t>embedded points in quick sort, do it again</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AC, quick_select(arr, 0, len(arr)-1, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>len(arr)-k-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>2 ptrs, O(n)/O(1) is the best soln</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AC, self.res = max(self.res, l + r + node.val)
+return max(l, r) + node.val, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>remember to cap 0</t>
+    </r>
+  </si>
+  <si>
+    <t>AC, (f_max - 1) * (n + 1) + n_max</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">binary search, l, r = 0, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>len(arr) - k</t>
+    </r>
+  </si>
+  <si>
+    <t>stack = [] # pair of (ch, cnt)
+if stack[-1][1] == k: stack.pop()</t>
+  </si>
+  <si>
+    <t>O(32n)/O(1), bitmask, loop from 1 to 32, zero * one</t>
+  </si>
+  <si>
+    <t>AC, O(mn)/O(mn), m is subset sum</t>
+  </si>
+  <si>
+    <t>if (i, j) not in seen and dfs(None, None, i, j)</t>
+  </si>
+  <si>
+    <t>AC, dfs to build graph, then bfs</t>
+  </si>
+  <si>
+    <t>delete_invalid_closing(), run twice</t>
+  </si>
+  <si>
+    <t>Corner cases!!</t>
+  </si>
+  <si>
+    <t>O(n)/O(n), try O(1)/O(n)</t>
+  </si>
+  <si>
+    <t>def dfs(node, cursum):
+      # cursum: sum of root to the current node</t>
+  </si>
+  <si>
+    <t>AC, but do it again, run with testcases</t>
+  </si>
+  <si>
+    <t>Done but with a small bug, 
+res.append only if tmp_max != float('-inf')
+改成出queue的时候update max</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">l, r = 0, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>len(nums)， self.flag</t>
+    </r>
+  </si>
+  <si>
+    <t>Bit mask, n=0(y), n = 1 or n &gt; 4(no),
+return n_bytes == 0</t>
+  </si>
+  <si>
+    <t>AC, bisect_left(binaryMatrix, 1, i)</t>
+  </si>
+  <si>
+    <t>Stack, do it again, run testcases</t>
+  </si>
+  <si>
+    <t>AC, DFS(nestList, depth)</t>
+  </si>
+  <si>
+    <t>O(365) -&gt; O(n)</t>
+  </si>
+  <si>
+    <t>res = [i*2 - 1 for i in res] + [i*2 for i in res]</t>
+  </si>
+  <si>
+    <t>backtracking O(4^n), curr - prev + prev * now</t>
+  </si>
+  <si>
+    <t>AC, but do it again, corner case</t>
+  </si>
+  <si>
+    <t>Find 2D median, math, O(mn)</t>
+  </si>
+  <si>
+    <t>TLE, should be 2 ptrs, O(m + n) all unique</t>
+  </si>
+  <si>
+    <t>inorder, connect tail and head after dfs()</t>
+  </si>
+  <si>
+    <t>find the rightmost biggest and swap, could be no swap
+hashmap to record index, loop from 9 to left</t>
+  </si>
+  <si>
+    <t>AC, hard code graph, dfs+memo</t>
+  </si>
+  <si>
+    <t>AC, mind captial, "AEIOU"</t>
+  </si>
+  <si>
+    <t>BFS, room[nx][ny] = room[x][y] + 1</t>
+  </si>
+  <si>
+    <t>self.lca = None, self.max_depth = -1, dfs(node, depth)</t>
+  </si>
+  <si>
+    <t>Pop ch1, ch2 in each iteration, check len(heap) &gt;= 2</t>
+  </si>
+  <si>
+    <t>2nd round</t>
+  </si>
+  <si>
+    <r>
+      <t>AC, for I in range(pos+1, n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>AC, d = max(l + r, d), return max(l,r) + 1</t>
+  </si>
+  <si>
+    <t>AC, nxt_bfs</t>
+  </si>
+  <si>
+    <t>if carrier: (check at the end)
+      res += str(carrier)</t>
+  </si>
+  <si>
+    <t>AC, res[i] = left[i] * right[i+1]</t>
+  </si>
+  <si>
+    <t>AC, take care of type, str, ord</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Slicing will introduce extra space. 
+Using indexes can reduce space complexity, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>build(l, r)</t>
+    </r>
+  </si>
+  <si>
+    <t>search(x, y, cnt), dist[nx][ny] += step + 1</t>
+  </si>
+  <si>
+    <t>AC, py2 has float issue when /</t>
+  </si>
+  <si>
+    <t>AC, median_x, median_y</t>
+  </si>
+  <si>
+    <t>TLE bcz py2, do it again with py3</t>
+  </si>
+  <si>
+    <t>dp[index][diff] equals to the length of arithmetic sequence at index with difference diff.</t>
+  </si>
+  <si>
+    <t>Find Winner on a Tic Tac Toe Game</t>
+  </si>
+  <si>
+    <t>loop to the end to fully use all nums, return 1 if hit target</t>
+  </si>
+  <si>
+    <t>hashmap, x1&gt;x2&amp;y1&gt;y2, if area != 0:</t>
+  </si>
+  <si>
+    <t>check all uncolored nodes in the end, not just node 0
+if colors[i] == 0 and not dfs(i, 1):</t>
+  </si>
+  <si>
+    <t>return step in the bfs.append loop, bcz seen marked as -1</t>
+  </si>
+  <si>
+    <t>target = self.total * random.random()
+don’t use randint() !!</t>
+  </si>
+  <si>
+    <t>tail.right = head, head.left = tail</t>
+  </si>
+  <si>
+    <t>AC, 3 steps, do it again
+find() should return group id</t>
+  </si>
+  <si>
+    <t>dp O(n^2) is not optimal? Manacher's Algorithm O(n)?</t>
+  </si>
+  <si>
+    <t>AC, trie</t>
+  </si>
+  <si>
+    <t>AC, log(N)</t>
+  </si>
+  <si>
+    <t>AC, compare nums[mid] &gt; nums[mid + 1]</t>
+  </si>
+  <si>
+    <t>Presum 2D, do it again</t>
+  </si>
+  <si>
+    <t>AC, while i &lt;= j</t>
+  </si>
+  <si>
+    <t>AC, max+1, return l - 1</t>
+  </si>
+  <si>
+    <t>failed on last case, don’t use abs()
+if x - arr[mid] &lt;= arr[mid+k] - x:</t>
+  </si>
+  <si>
+    <r>
+      <t>Do it again, scan order,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> del dict=0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>then scan leftover in the hash map</t>
+    </r>
+  </si>
+  <si>
+    <t>dfs(s, i) O(n) / O(n)</t>
+  </si>
+  <si>
+    <t>dfs return node, j, jump the ptr</t>
+  </si>
+  <si>
+    <t>AC, move ptrs based on end</t>
+  </si>
+  <si>
+    <t>redo it, [max_start, min_end]</t>
+  </si>
+  <si>
+    <t>while zeros &gt; k: zeros --
+go through test case again</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>while i &lt; j</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> and not s[i].isalnum()</t>
+    </r>
+  </si>
+  <si>
+    <t>return l + k
+# l, how many numbers we used before that missing num 9</t>
+  </si>
+  <si>
+    <t>O(logn) / O(1), power of 2</t>
+  </si>
+  <si>
+    <t>dfs(node) return the right most tail, 
+connect tails in between
+if left_tail:
+                left_tail.right = node.right
+                node.right = node.left
+                node.left = None</t>
+  </si>
+  <si>
+    <t>Typo, do it again</t>
+  </si>
+  <si>
+    <t>if not grid[x][y]: return 0
+area += dfs(nx, ny)</t>
+  </si>
+  <si>
+    <t>use nxt_bfs = [] !! For level-bfs</t>
+  </si>
+  <si>
+    <t>16 sorted combinations, containing hrs&amp;mins</t>
+  </si>
+  <si>
+    <t>length = 1, max(l+1, r+1)
+self.res = max(self.res, length)</t>
+  </si>
+  <si>
+    <t>0. self.res = float('inf')
+1. early stop
+2. I forgot to write while loop</t>
+  </si>
+  <si>
+    <t>AC, return [l, r-1]</t>
+  </si>
+  <si>
+    <t>dic[node] = Node(node.val) BFS/DFS, copy is a by product</t>
+  </si>
+  <si>
+    <t>cursum = cursum * 10 + node.val
+if not node.left and not node.right:
+    self.res += cursum
+495: 400 + 90 + 5</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use level-BFS! </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>for _ in range(size of bfs)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, 
+seen set updated in each level</t>
+    </r>
+  </si>
+  <si>
+    <t>don’t use arr, O(1) space will do
+outer loop for I in range(32)</t>
+  </si>
+  <si>
+    <t>AC, inorder() + merge sorted array</t>
+  </si>
+  <si>
+    <t>AC, mono dec stack, kick out when inc</t>
+  </si>
+  <si>
+    <t># Sum the products from all pairs of digits， O(mn)/O(m+n)</t>
+  </si>
+  <si>
+    <t>Sweep line O(n^2) if we book n times</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC, 3 ptrs # O(n)/O(1)
+</t>
+  </si>
+  <si>
+    <t>AC, dfs(left, right, path)</t>
+  </si>
+  <si>
+    <t># if it's edge(index overflows) or it's water(cell=0), +1</t>
+  </si>
+  <si>
+    <t>AC
+Pass 1: Remove all invalid ")"
+Pass 2: Remove the rightmost "("</t>
+  </si>
+  <si>
+    <t>AC, O(n)/O(n)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">        if node.val &gt; l:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+                dfs(node.left, l, h)
+            if l &lt;= node.val &lt;= h:
+                self.res += node.val
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">            if node.val &lt; h:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+                dfs(node.right, l, h)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AC, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>d[0] = 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, cnt set as 1, len set as -1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AC, return left_unmatched + right_unmatched
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>compared with 1249(remove need 2 pass), count insert only need 1 pass</t>
+    </r>
+  </si>
+  <si>
+    <t>HARD, based on 921/1249</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AC, return res if res != n else </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+  </si>
+  <si>
+    <t>AC, 
+如果parent的左右孩子都有返回，说明parent就是LCA
+如果左边没有返回：则右边返回的就是LCA
+如果右边没有返回：则左边返回的就是LCA</t>
+  </si>
+  <si>
+    <t>AC, presum, d[0] = -1(index), 
+only record leftmost index</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AC, check len &gt;= 2, so </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>no 连续 presum</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AC, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MOD 26</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">AC </t>
+  </si>
+  <si>
+    <t>if not fast: (when n == len(nodes))
+     return head.next</t>
+  </si>
+  <si>
+    <t>while fast.next not while fast
+slow stop before the removed node
+slow.next = slow.next.next</t>
+  </si>
+  <si>
+    <t>odd + even = odd, cut at the end</t>
+  </si>
+  <si>
+    <t>if len(pq) &lt;= 1: return ""
+corner cases could be len(hq) = 1/0
+when len=1, check cnt &lt; -1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="8">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -518,6 +1629,14 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="PingFang SC"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="PingFang SC"/>
       <family val="2"/>
       <charset val="134"/>
@@ -553,7 +1672,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -563,6 +1682,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,19 +1703,25 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -906,35 +2037,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99E920BA-5A90-344E-AEA7-44B85D85078E}">
-  <dimension ref="A1:I102"/>
+  <dimension ref="A1:I177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
   <cols>
     <col min="3" max="3" width="47" customWidth="1"/>
     <col min="4" max="4" width="16.5" customWidth="1"/>
-    <col min="5" max="5" width="44.33203125" customWidth="1"/>
-    <col min="6" max="6" width="24.33203125" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="53.33203125" customWidth="1"/>
+    <col min="6" max="6" width="45.33203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="39.5" customWidth="1"/>
     <col min="8" max="8" width="23.1640625" customWidth="1"/>
     <col min="9" max="9" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="16">
       <c r="B1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E1">
-        <v>1</v>
-      </c>
-      <c r="F1">
-        <v>2</v>
+        <v>103</v>
+      </c>
+      <c r="E1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F1" t="s">
+        <v>284</v>
       </c>
       <c r="G1">
         <v>3</v>
@@ -946,1474 +2077,2946 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="22">
+    <row r="2" spans="1:9" ht="92">
       <c r="B2" s="1">
         <v>1249</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3">
         <v>0.65</v>
       </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" ht="22">
+      <c r="E2" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1"/>
       <c r="B3" s="1">
         <v>680</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
+      <c r="C3" s="9" t="s">
+        <v>2</v>
       </c>
       <c r="D3" s="3">
         <v>0.378</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" ht="22">
+        <v>107</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1"/>
       <c r="B4" s="1">
         <v>1762</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>2</v>
+      <c r="C4" s="9" t="s">
+        <v>4</v>
       </c>
       <c r="D4" s="3">
         <v>0.81200000000000006</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" ht="22">
+        <v>111</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1"/>
       <c r="B5" s="1">
         <v>1570</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>3</v>
+      <c r="C5" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D5" s="3">
         <v>0.90800000000000003</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" ht="69">
+        <v>128</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="46">
       <c r="A6" s="1"/>
       <c r="B6" s="1">
         <v>953</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>4</v>
+      <c r="C6" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="D6" s="3">
         <v>0.52100000000000002</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" ht="22">
+      <c r="E6" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1"/>
       <c r="B7" s="1">
         <v>426</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>5</v>
+      <c r="C7" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="D7" s="3">
         <v>0.63200000000000001</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" ht="69">
+      <c r="E7" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="138">
       <c r="A8" s="1"/>
       <c r="B8" s="1">
         <v>938</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>6</v>
+      <c r="C8" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="D8" s="3">
         <v>0.84</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" ht="22">
+      <c r="E8" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1"/>
       <c r="B9" s="1">
         <v>973</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>7</v>
+      <c r="C9" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="D9" s="3">
         <v>0.65600000000000003</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:9" ht="69">
+      <c r="E9" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="46">
       <c r="A10" s="1"/>
       <c r="B10" s="1">
         <v>1650</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>8</v>
+      <c r="C10" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="D10" s="3">
         <v>0.77300000000000002</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:9" ht="22">
+      <c r="E10" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="92">
       <c r="A11" s="1"/>
       <c r="B11" s="1">
         <v>827</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>9</v>
+      <c r="C11" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="D11" s="3">
         <v>0.442</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:9" ht="22">
+      <c r="E11" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1"/>
       <c r="B12" s="1">
         <v>560</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>10</v>
+      <c r="C12" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="D12" s="3">
         <v>0.437</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" ht="22">
+        <v>109</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1"/>
       <c r="B13" s="1">
         <v>415</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>11</v>
+      <c r="C13" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="D13" s="3">
         <v>0.50600000000000001</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:9" ht="22">
+        <v>110</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="92">
       <c r="A14" s="1"/>
       <c r="B14" s="1">
         <v>921</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>12</v>
+      <c r="C14" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="D14" s="3">
         <v>0.76800000000000002</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:9" ht="22">
+      <c r="E14" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1"/>
       <c r="B15" s="1">
         <v>199</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>13</v>
+      <c r="C15" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="D15" s="3">
         <v>0.58099999999999996</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:9" ht="22">
+        <v>120</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1"/>
       <c r="B16" s="1">
         <v>301</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>14</v>
+      <c r="C16" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="D16" s="3">
         <v>0.45800000000000002</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" ht="22">
+      <c r="E16" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1"/>
       <c r="B17" s="1">
         <v>1428</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>15</v>
+      <c r="C17" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="D17" s="3">
         <v>0.51400000000000001</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="4"/>
+      <c r="E17" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="46">
       <c r="A18" s="1"/>
       <c r="B18" s="1">
         <v>215</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>16</v>
+      <c r="C18" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="D18" s="3">
         <v>0.61199999999999999</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" ht="22">
+      <c r="E18" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="69">
       <c r="A19" s="1"/>
       <c r="B19" s="1">
         <v>528</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>17</v>
+      <c r="C19" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="D19" s="3">
         <v>0.45500000000000002</v>
       </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" ht="22">
+      <c r="E19" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="161">
       <c r="A20" s="1"/>
       <c r="B20" s="1">
         <v>236</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>18</v>
+      <c r="C20" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="D20" s="3">
         <v>0.52500000000000002</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" ht="22">
+        <v>125</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1"/>
       <c r="B21" s="1">
         <v>721</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>19</v>
+      <c r="C21" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="D21" s="3">
         <v>0.54</v>
       </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="1:6" ht="22">
+      <c r="E21" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1"/>
       <c r="B22" s="1">
         <v>314</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>20</v>
+      <c r="C22" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="D22" s="3">
         <v>0.48899999999999999</v>
       </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:6" ht="22">
+      <c r="E22" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1"/>
       <c r="B23" s="1">
         <v>227</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>21</v>
+      <c r="C23" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="D23" s="3">
         <v>0.39900000000000002</v>
       </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="1:6" ht="22">
+      <c r="E23" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="69">
       <c r="A24" s="1"/>
       <c r="B24" s="1">
         <v>670</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>22</v>
+      <c r="C24" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="D24" s="3">
         <v>0.46300000000000002</v>
       </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="1:6" ht="22">
+      <c r="E24" s="6" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1"/>
       <c r="B25" s="1">
         <v>636</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>23</v>
+      <c r="C25" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="D25" s="3">
         <v>0.57599999999999996</v>
       </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="1:6" ht="22">
+      <c r="E25" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="46">
       <c r="A26" s="1"/>
       <c r="B26" s="1">
         <v>523</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>24</v>
+      <c r="C26" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="D26" s="3">
         <v>0.26</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F26" s="4"/>
+      <c r="E26" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="27" spans="1:6" ht="23">
       <c r="A27" s="1"/>
       <c r="B27" s="1">
         <v>140</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>25</v>
+      <c r="C27" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="D27" s="3">
         <v>0.38900000000000001</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="F27" s="4"/>
-    </row>
-    <row r="28" spans="1:6" ht="22">
+      <c r="E27" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1"/>
       <c r="B28" s="1">
         <v>31</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>26</v>
+      <c r="C28" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="D28" s="3">
         <v>0.34699999999999998</v>
       </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="4"/>
-    </row>
-    <row r="29" spans="1:6" ht="22">
+      <c r="E28" s="11" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1"/>
       <c r="B29" s="1">
         <v>249</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>27</v>
+      <c r="C29" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="D29" s="3">
         <v>0.60499999999999998</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F29" s="4"/>
-    </row>
-    <row r="30" spans="1:6" ht="22">
+        <v>130</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1"/>
       <c r="B30" s="1">
         <v>238</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>28</v>
+      <c r="C30" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="D30" s="3">
         <v>0.625</v>
       </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="4"/>
-    </row>
-    <row r="31" spans="1:6" ht="22">
+      <c r="E30" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1"/>
       <c r="B31" s="1">
         <v>1047</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>29</v>
+      <c r="C31" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="D31" s="3">
         <v>0.71199999999999997</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F31" s="4"/>
-    </row>
-    <row r="32" spans="1:6" ht="22">
+        <v>108</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1"/>
       <c r="B32" s="1">
         <v>65</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>30</v>
+      <c r="C32" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="D32" s="3">
         <v>0.17199999999999999</v>
       </c>
       <c r="E32" s="3"/>
-      <c r="F32" s="4"/>
-    </row>
-    <row r="33" spans="1:6" ht="22">
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1"/>
       <c r="B33" s="1">
         <v>1263</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>31</v>
+      <c r="C33" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="D33" s="3">
         <v>0.47399999999999998</v>
       </c>
       <c r="E33" s="3"/>
-      <c r="F33" s="4"/>
-    </row>
-    <row r="34" spans="1:6" ht="22">
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1"/>
       <c r="B34" s="1">
         <v>71</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>32</v>
+      <c r="C34" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="D34" s="3">
         <v>0.36199999999999999</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F34" s="4"/>
-    </row>
-    <row r="35" spans="1:6" ht="22">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1"/>
       <c r="B35" s="1">
         <v>398</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>33</v>
+      <c r="C35" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="D35" s="3">
         <v>0.61199999999999999</v>
       </c>
       <c r="E35" s="3"/>
-      <c r="F35" s="4"/>
-    </row>
-    <row r="36" spans="1:6" ht="22">
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1"/>
       <c r="B36" s="1">
         <v>42</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>34</v>
+      <c r="C36" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="D36" s="3">
         <v>0.54</v>
       </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="4"/>
-    </row>
-    <row r="37" spans="1:6" ht="22">
+      <c r="E36" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1"/>
       <c r="B37" s="1">
         <v>408</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>35</v>
+      <c r="C37" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="D37" s="3">
         <v>0.32400000000000001</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F37" s="4"/>
-    </row>
-    <row r="38" spans="1:6" ht="22">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1"/>
       <c r="B38" s="1">
         <v>173</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D38" s="3">
         <v>0.63100000000000001</v>
       </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="4"/>
-    </row>
-    <row r="39" spans="1:6" ht="22">
+      <c r="E38" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="46">
       <c r="A39" s="1"/>
       <c r="B39" s="1">
         <v>67</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>37</v>
+      <c r="C39" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="D39" s="3">
         <v>0.48799999999999999</v>
       </c>
-      <c r="E39" s="3"/>
-      <c r="F39" s="4"/>
-    </row>
-    <row r="40" spans="1:6" ht="22">
+      <c r="E39" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1"/>
       <c r="B40" s="1">
         <v>347</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>38</v>
+      <c r="C40" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="D40" s="3">
         <v>0.63600000000000001</v>
       </c>
-      <c r="E40" s="3"/>
-      <c r="F40" s="4"/>
-    </row>
-    <row r="41" spans="1:6" ht="22">
+      <c r="E40" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="69">
       <c r="A41" s="1"/>
       <c r="B41" s="1">
         <v>1382</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>39</v>
+      <c r="C41" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="D41" s="3">
         <v>0.78500000000000003</v>
       </c>
-      <c r="E41" s="3"/>
-      <c r="F41" s="4"/>
-    </row>
-    <row r="42" spans="1:6" ht="22">
+      <c r="E41" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="G41" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1"/>
       <c r="B42" s="1">
         <v>766</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>40</v>
+      <c r="C42" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="D42" s="3">
         <v>0.66600000000000004</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="F42" s="4"/>
-    </row>
-    <row r="43" spans="1:6" ht="22">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1"/>
       <c r="B43" s="1">
         <v>543</v>
       </c>
-      <c r="C43" s="6" t="s">
-        <v>41</v>
+      <c r="C43" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="D43" s="3">
         <v>0.52200000000000002</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="F43" s="4"/>
-    </row>
-    <row r="44" spans="1:6" ht="22">
+        <v>115</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1"/>
       <c r="B44" s="1">
         <v>56</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>42</v>
+      <c r="C44" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="D44" s="3">
         <v>0.43099999999999999</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F44" s="4"/>
-    </row>
-    <row r="45" spans="1:6" ht="46">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="46">
       <c r="A45" s="1"/>
       <c r="B45" s="1">
         <v>139</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>43</v>
+      <c r="C45" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="D45" s="3">
         <v>0.432</v>
       </c>
-      <c r="E45" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="F45" s="4"/>
-    </row>
-    <row r="46" spans="1:6" ht="22">
+      <c r="E45" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1"/>
       <c r="B46" s="1">
         <v>708</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>44</v>
+      <c r="C46" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="D46" s="3">
         <v>0.33400000000000002</v>
       </c>
       <c r="E46" s="3"/>
-      <c r="F46" s="4"/>
-    </row>
-    <row r="47" spans="1:6" ht="22">
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1"/>
       <c r="B47" s="1">
         <v>317</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>45</v>
+      <c r="C47" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="D47" s="3">
         <v>0.437</v>
       </c>
-      <c r="E47" s="3"/>
-      <c r="F47" s="4"/>
-    </row>
-    <row r="48" spans="1:6" ht="22">
+      <c r="E47" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1"/>
       <c r="B48" s="1">
         <v>269</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>46</v>
+      <c r="C48" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="D48" s="3">
         <v>0.34300000000000003</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F48" s="4"/>
-    </row>
-    <row r="49" spans="1:6" ht="22">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="46">
       <c r="A49" s="1"/>
       <c r="B49" s="1">
         <v>124</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>47</v>
+      <c r="C49" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="D49" s="3">
         <v>0.36699999999999999</v>
       </c>
-      <c r="E49" s="3"/>
-      <c r="F49" s="4"/>
-    </row>
-    <row r="50" spans="1:6" ht="22">
+      <c r="E49" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1"/>
       <c r="B50" s="1">
         <v>146</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>48</v>
+      <c r="C50" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="D50" s="3">
         <v>0.38200000000000001</v>
       </c>
-      <c r="E50" s="3"/>
-      <c r="F50" s="4"/>
-    </row>
-    <row r="51" spans="1:6" ht="46">
+      <c r="E50" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="46">
       <c r="A51" s="1"/>
       <c r="B51" s="1">
         <v>987</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>49</v>
+      <c r="C51" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="D51" s="3">
         <v>0.39700000000000002</v>
       </c>
-      <c r="E51" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F51" s="4"/>
-    </row>
-    <row r="52" spans="1:6" ht="22">
+      <c r="E51" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1"/>
       <c r="B52" s="1">
         <v>863</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>50</v>
+      <c r="C52" s="9" t="s">
+        <v>53</v>
       </c>
       <c r="D52" s="3">
         <v>0.59599999999999997</v>
       </c>
-      <c r="E52" s="3"/>
-      <c r="F52" s="4"/>
-    </row>
-    <row r="53" spans="1:6" ht="22">
+      <c r="E52" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1"/>
       <c r="B53" s="1">
         <v>1344</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>51</v>
+      <c r="C53" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="D53" s="3">
         <v>0.621</v>
       </c>
-      <c r="E53" s="3"/>
-      <c r="F53" s="4"/>
-    </row>
-    <row r="54" spans="1:6" ht="22">
+      <c r="E53" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1"/>
       <c r="B54" s="1">
         <v>339</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>52</v>
+      <c r="C54" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="D54" s="3">
         <v>0.78300000000000003</v>
       </c>
-      <c r="E54" s="3"/>
-      <c r="F54" s="4"/>
-    </row>
-    <row r="55" spans="1:6" ht="22">
+      <c r="E54" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="46">
       <c r="A55" s="1"/>
       <c r="B55" s="1">
         <v>791</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>53</v>
+      <c r="C55" s="9" t="s">
+        <v>56</v>
       </c>
       <c r="D55" s="3">
         <v>0.67300000000000004</v>
       </c>
-      <c r="E55" s="3"/>
-      <c r="F55" s="4"/>
-    </row>
-    <row r="56" spans="1:6" ht="22">
+      <c r="E55" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1"/>
       <c r="B56" s="1">
         <v>1011</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>54</v>
+      <c r="C56" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="D56" s="3">
         <v>0.61599999999999999</v>
       </c>
-      <c r="E56" s="3"/>
-      <c r="F56" s="4"/>
-    </row>
-    <row r="57" spans="1:6" ht="22">
+      <c r="E56" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1"/>
       <c r="B57" s="1">
-        <v>1757</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="D57" s="3">
-        <v>0.95699999999999996</v>
-      </c>
-      <c r="E57" s="3"/>
-      <c r="F57" s="4"/>
-    </row>
-    <row r="58" spans="1:6" ht="22">
+        <v>0.315</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="69">
       <c r="A58" s="1"/>
       <c r="B58" s="1">
-        <v>50</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>56</v>
+        <v>162</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="D58" s="3">
-        <v>0.315</v>
-      </c>
-      <c r="E58" s="3"/>
-      <c r="F58" s="4"/>
-    </row>
-    <row r="59" spans="1:6" ht="92">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1"/>
       <c r="B59" s="1">
-        <v>162</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>57</v>
+        <v>29</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="D59" s="3">
-        <v>0.44900000000000001</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="F59" s="4"/>
-    </row>
-    <row r="60" spans="1:6" ht="22">
+        <v>0.17</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1"/>
       <c r="B60" s="1">
-        <v>29</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>58</v>
+        <v>270</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="D60" s="3">
-        <v>0.17</v>
-      </c>
-      <c r="E60" s="3"/>
-      <c r="F60" s="4"/>
-    </row>
-    <row r="61" spans="1:6" ht="22">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="69">
       <c r="A61" s="1"/>
       <c r="B61" s="1">
-        <v>270</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>59</v>
+        <v>1004</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="D61" s="3">
-        <v>0.52200000000000002</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F61" s="4"/>
-    </row>
-    <row r="62" spans="1:6" ht="69">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="G61" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1"/>
       <c r="B62" s="1">
-        <v>1004</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>60</v>
+        <v>125</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="D62" s="3">
-        <v>0.61499999999999999</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="F62" s="4"/>
-    </row>
-    <row r="63" spans="1:6" ht="22">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1"/>
       <c r="B63" s="1">
-        <v>125</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>61</v>
+        <v>498</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="D63" s="3">
-        <v>0.39800000000000002</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F63" s="4"/>
-    </row>
-    <row r="64" spans="1:6" ht="22">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="46">
       <c r="A64" s="1"/>
       <c r="B64" s="1">
-        <v>498</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>62</v>
+        <v>88</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="D64" s="3">
-        <v>0.53100000000000003</v>
-      </c>
-      <c r="E64" s="3"/>
-      <c r="F64" s="4"/>
-    </row>
-    <row r="65" spans="1:6" ht="22">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1"/>
       <c r="B65" s="1">
-        <v>88</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>63</v>
+        <v>266</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>66</v>
       </c>
       <c r="D65" s="3">
-        <v>0.42099999999999999</v>
-      </c>
-      <c r="E65" s="3"/>
-      <c r="F65" s="4"/>
-    </row>
-    <row r="66" spans="1:6" ht="22">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1"/>
       <c r="B66" s="1">
-        <v>266</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>64</v>
+        <v>536</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="D66" s="3">
-        <v>0.63900000000000001</v>
-      </c>
-      <c r="E66" s="3"/>
-      <c r="F66" s="4"/>
-    </row>
-    <row r="67" spans="1:6" ht="22">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1"/>
       <c r="B67" s="1">
-        <v>536</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>65</v>
+        <v>986</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>68</v>
       </c>
       <c r="D67" s="3">
-        <v>0.54200000000000004</v>
-      </c>
-      <c r="E67" s="3"/>
-      <c r="F67" s="4"/>
-    </row>
-    <row r="68" spans="1:6" ht="22">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1"/>
       <c r="B68" s="1">
-        <v>986</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>66</v>
+        <v>76</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="D68" s="3">
-        <v>0.69599999999999995</v>
-      </c>
-      <c r="E68" s="3"/>
-      <c r="F68" s="4"/>
-    </row>
-    <row r="69" spans="1:6" ht="22">
+        <v>0.378</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="69">
       <c r="A69" s="1"/>
       <c r="B69" s="1">
-        <v>76</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>67</v>
+        <v>1539</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="D69" s="3">
-        <v>0.378</v>
-      </c>
-      <c r="E69" s="3"/>
-      <c r="F69" s="4"/>
-    </row>
-    <row r="70" spans="1:6" ht="22">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1"/>
       <c r="B70" s="1">
-        <v>1539</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>68</v>
+        <v>133</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="D70" s="3">
-        <v>0.54900000000000004</v>
-      </c>
-      <c r="E70" s="3"/>
-      <c r="F70" s="4"/>
-    </row>
-    <row r="71" spans="1:6" ht="22">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1"/>
       <c r="B71" s="1">
-        <v>133</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>69</v>
+        <v>23</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>72</v>
       </c>
       <c r="D71" s="3">
-        <v>0.43099999999999999</v>
-      </c>
-      <c r="E71" s="3"/>
-      <c r="F71" s="4"/>
-    </row>
-    <row r="72" spans="1:6" ht="22">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1"/>
       <c r="B72" s="1">
-        <v>23</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>70</v>
+        <v>273</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="D72" s="3">
-        <v>0.44800000000000001</v>
-      </c>
-      <c r="E72" s="3"/>
-      <c r="F72" s="4"/>
-    </row>
-    <row r="73" spans="1:6" ht="22">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1"/>
       <c r="B73" s="1">
-        <v>273</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>71</v>
+        <v>304</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="D73" s="3">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="E73" s="3"/>
-      <c r="F73" s="4"/>
-    </row>
-    <row r="74" spans="1:6" ht="22">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1"/>
       <c r="B74" s="1">
-        <v>304</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>72</v>
+        <v>977</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>75</v>
       </c>
       <c r="D74" s="3">
-        <v>0.45200000000000001</v>
-      </c>
-      <c r="E74" s="3"/>
-      <c r="F74" s="4"/>
-    </row>
-    <row r="75" spans="1:6" ht="22">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="69">
       <c r="A75" s="1"/>
       <c r="B75" s="1">
-        <v>977</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>73</v>
+        <v>1891</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>76</v>
       </c>
       <c r="D75" s="3">
-        <v>0.71499999999999997</v>
-      </c>
-      <c r="E75" s="3"/>
-      <c r="F75" s="4"/>
-    </row>
-    <row r="76" spans="1:6" ht="22">
+        <v>0.501</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="46">
       <c r="A76" s="1"/>
       <c r="B76" s="1">
-        <v>1891</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>74</v>
+        <v>658</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="D76" s="3">
-        <v>0.501</v>
-      </c>
-      <c r="E76" s="3"/>
-      <c r="F76" s="4"/>
-    </row>
-    <row r="77" spans="1:6" ht="22">
+        <v>0.437</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="92">
       <c r="A77" s="1"/>
       <c r="B77" s="1">
-        <v>658</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>75</v>
+        <v>129</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="D77" s="3">
-        <v>0.437</v>
-      </c>
-      <c r="E77" s="3"/>
-      <c r="F77" s="4"/>
-    </row>
-    <row r="78" spans="1:6" ht="22">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1"/>
       <c r="B78" s="1">
-        <v>129</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>76</v>
+        <v>1868</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="D78" s="3">
-        <v>0.53600000000000003</v>
-      </c>
-      <c r="E78" s="3"/>
-      <c r="F78" s="4"/>
-    </row>
-    <row r="79" spans="1:6" ht="22">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1"/>
       <c r="B79" s="1">
-        <v>1868</v>
+        <v>138</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D79" s="3">
-        <v>0.57599999999999996</v>
+        <v>0.443</v>
       </c>
       <c r="E79" s="3"/>
-      <c r="F79" s="4"/>
-    </row>
-    <row r="80" spans="1:6" ht="22">
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1"/>
       <c r="B80" s="1">
-        <v>138</v>
+        <v>380</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D80" s="3">
-        <v>0.443</v>
+        <v>0.501</v>
       </c>
       <c r="E80" s="3"/>
-      <c r="F80" s="4"/>
-    </row>
-    <row r="81" spans="1:6" ht="22">
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1"/>
       <c r="B81" s="1">
-        <v>380</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>79</v>
+        <v>605</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="D81" s="3">
-        <v>0.501</v>
-      </c>
-      <c r="E81" s="3"/>
-      <c r="F81" s="4"/>
-    </row>
-    <row r="82" spans="1:6" ht="22">
+        <v>0.318</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1"/>
       <c r="B82" s="1">
-        <v>605</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>80</v>
+        <v>1522</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>83</v>
       </c>
       <c r="D82" s="3">
-        <v>0.318</v>
-      </c>
-      <c r="E82" s="3"/>
-      <c r="F82" s="4"/>
-    </row>
-    <row r="83" spans="1:6" ht="22">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1"/>
       <c r="B83" s="1">
-        <v>1522</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>81</v>
+        <v>983</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>84</v>
       </c>
       <c r="D83" s="3">
-        <v>0.71199999999999997</v>
-      </c>
-      <c r="E83" s="3"/>
-      <c r="F83" s="4"/>
-    </row>
-    <row r="84" spans="1:6" ht="22">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1"/>
       <c r="B84" s="1">
-        <v>983</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>82</v>
+        <v>621</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>85</v>
       </c>
       <c r="D84" s="3">
-        <v>0.63300000000000001</v>
-      </c>
-      <c r="E84" s="3"/>
-      <c r="F84" s="4"/>
-    </row>
-    <row r="85" spans="1:6" ht="22">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="46">
       <c r="A85" s="1"/>
       <c r="B85" s="1">
-        <v>621</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>83</v>
+        <v>1209</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="D85" s="3">
-        <v>0.53600000000000003</v>
-      </c>
-      <c r="E85" s="3"/>
-      <c r="F85" s="4"/>
-    </row>
-    <row r="86" spans="1:6" ht="22">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1"/>
       <c r="B86" s="1">
-        <v>1209</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>84</v>
+        <v>127</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>87</v>
       </c>
       <c r="D86" s="3">
-        <v>0.56200000000000006</v>
-      </c>
-      <c r="E86" s="3"/>
-      <c r="F86" s="4"/>
-    </row>
-    <row r="87" spans="1:6" ht="22">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1"/>
       <c r="B87" s="1">
-        <v>127</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>85</v>
+        <v>346</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>88</v>
       </c>
       <c r="D87" s="3">
-        <v>0.33600000000000002</v>
-      </c>
-      <c r="E87" s="3"/>
-      <c r="F87" s="4"/>
-    </row>
-    <row r="88" spans="1:6" ht="22">
+        <v>0.748</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1"/>
       <c r="B88" s="1">
-        <v>346</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>86</v>
+        <v>296</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>89</v>
       </c>
       <c r="D88" s="3">
-        <v>0.748</v>
-      </c>
-      <c r="E88" s="3"/>
-      <c r="F88" s="4"/>
-    </row>
-    <row r="89" spans="1:6" ht="22">
+        <v>0.59</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1"/>
       <c r="B89" s="1">
-        <v>296</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>87</v>
+        <v>34</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>90</v>
       </c>
       <c r="D89" s="3">
-        <v>0.59</v>
-      </c>
-      <c r="E89" s="3"/>
-      <c r="F89" s="4"/>
-    </row>
-    <row r="90" spans="1:6" ht="22">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1"/>
       <c r="B90" s="1">
-        <v>34</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>88</v>
+        <v>163</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>91</v>
       </c>
       <c r="D90" s="3">
-        <v>0.38900000000000001</v>
-      </c>
-      <c r="E90" s="3"/>
-      <c r="F90" s="4"/>
-    </row>
-    <row r="91" spans="1:6" ht="22">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1"/>
       <c r="B91" s="1">
-        <v>163</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>89</v>
+        <v>282</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="D91" s="3">
-        <v>0.29599999999999999</v>
-      </c>
-      <c r="E91" s="3"/>
-      <c r="F91" s="4"/>
-    </row>
-    <row r="92" spans="1:6" ht="22">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1"/>
       <c r="B92" s="1">
-        <v>282</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>90</v>
+        <v>8</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>93</v>
       </c>
       <c r="D92" s="3">
-        <v>0.38600000000000001</v>
-      </c>
-      <c r="E92" s="3"/>
-      <c r="F92" s="4"/>
-    </row>
-    <row r="93" spans="1:6" ht="22">
+        <v>0.16</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="69">
       <c r="A93" s="1"/>
       <c r="B93" s="1">
-        <v>8</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>91</v>
+        <v>515</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="D93" s="3">
-        <v>0.16</v>
-      </c>
-      <c r="E93" s="3"/>
-      <c r="F93" s="4"/>
-    </row>
-    <row r="94" spans="1:6" ht="22">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1"/>
       <c r="B94" s="1">
-        <v>515</v>
+        <v>319</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D94" s="3">
-        <v>0.63500000000000001</v>
+        <v>0.46400000000000002</v>
       </c>
       <c r="E94" s="3"/>
-      <c r="F94" s="4"/>
-    </row>
-    <row r="95" spans="1:6" ht="22">
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1"/>
       <c r="B95" s="1">
-        <v>319</v>
+        <v>158</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D95" s="3">
-        <v>0.46400000000000002</v>
+        <v>0.39500000000000002</v>
       </c>
       <c r="E95" s="3"/>
-      <c r="F95" s="4"/>
-    </row>
-    <row r="96" spans="1:6" ht="22">
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1"/>
       <c r="B96" s="1">
-        <v>158</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>94</v>
+        <v>224</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>97</v>
       </c>
       <c r="D96" s="3">
         <v>0.39500000000000002</v>
       </c>
       <c r="E96" s="3"/>
-      <c r="F96" s="4"/>
-    </row>
-    <row r="97" spans="1:6" ht="22">
+    </row>
+    <row r="97" spans="1:8" ht="46">
       <c r="A97" s="1"/>
       <c r="B97" s="1">
-        <v>224</v>
+        <v>393</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D97" s="3">
-        <v>0.39500000000000002</v>
-      </c>
-      <c r="E97" s="3"/>
-      <c r="F97" s="4"/>
-    </row>
-    <row r="98" spans="1:6" ht="22">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="138">
       <c r="A98" s="1"/>
       <c r="B98" s="1">
-        <v>393</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>96</v>
+        <v>114</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>99</v>
       </c>
       <c r="D98" s="3">
-        <v>0.38800000000000001</v>
-      </c>
-      <c r="E98" s="3"/>
-      <c r="F98" s="4"/>
-    </row>
-    <row r="99" spans="1:6" ht="22">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1"/>
       <c r="B99" s="1">
-        <v>114</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>97</v>
+        <v>724</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>100</v>
       </c>
       <c r="D99" s="3">
-        <v>0.55500000000000005</v>
-      </c>
-      <c r="E99" s="3"/>
-      <c r="F99" s="4"/>
-    </row>
-    <row r="100" spans="1:6" ht="22">
+        <v>0.49</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="46">
       <c r="A100" s="1"/>
       <c r="B100" s="1">
-        <v>724</v>
+        <v>126</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D100" s="3">
-        <v>0.49</v>
-      </c>
-      <c r="E100" s="3"/>
-      <c r="F100" s="4"/>
-    </row>
-    <row r="101" spans="1:6" ht="22">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1"/>
       <c r="B101" s="1">
-        <v>126</v>
+        <v>548</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D101" s="3">
-        <v>0.25700000000000001</v>
+        <v>0.49399999999999999</v>
       </c>
       <c r="E101" s="3"/>
-      <c r="F101" s="4"/>
-    </row>
-    <row r="102" spans="1:6" ht="22">
-      <c r="A102" s="1"/>
+    </row>
+    <row r="102" spans="1:8" ht="46">
       <c r="B102" s="1">
-        <v>548</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>100</v>
+        <v>695</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>146</v>
       </c>
       <c r="D102" s="3">
-        <v>0.49399999999999999</v>
-      </c>
-      <c r="E102" s="3"/>
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="E102" t="s">
+        <v>226</v>
+      </c>
+      <c r="F102" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="G102" s="5"/>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="B103" s="1">
+        <v>1161</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D103" s="3">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="E103" t="s">
+        <v>248</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H103" s="5"/>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="B104" s="1">
+        <v>935</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D104" s="3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H104" s="5"/>
+    </row>
+    <row r="105" spans="1:8" ht="54">
+      <c r="B105" s="1">
+        <v>253</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D105" s="3">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="E105" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H105" s="5"/>
+    </row>
+    <row r="106" spans="1:8" ht="71">
+      <c r="B106" s="1">
+        <v>16</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D106" s="3">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="E106" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="F106" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H106" s="5"/>
+    </row>
+    <row r="107" spans="1:8" ht="69">
+      <c r="B107" s="1">
+        <v>19</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D107" s="3">
+        <v>0.371</v>
+      </c>
+      <c r="E107" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="F107" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H107" s="5"/>
+    </row>
+    <row r="108" spans="1:8" ht="54">
+      <c r="B108" s="1">
+        <v>39</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D108" s="3">
+        <v>0.623</v>
+      </c>
+      <c r="E108" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H108" s="5"/>
+    </row>
+    <row r="109" spans="1:8" ht="69">
+      <c r="B109" s="1">
+        <v>767</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D109" s="3">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="E109" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="F109" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H109" s="5"/>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="B110" s="1">
+        <v>715</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D110" s="3">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H110" s="5"/>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="B111" s="1">
+        <v>1091</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="D111" s="3">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="E111" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H111" s="5"/>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="B112" s="1">
+        <v>211</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="D112" s="3">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="E112" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="G112" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H112" s="5"/>
+    </row>
+    <row r="113" spans="2:8">
+      <c r="B113" s="1">
+        <v>78</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D113" s="3">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="E113" t="s">
+        <v>225</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H113" s="5"/>
+    </row>
+    <row r="114" spans="2:8">
+      <c r="B114" s="1">
+        <v>286</v>
+      </c>
+      <c r="C114" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D114" s="3">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="E114" t="s">
+        <v>281</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H114" s="5"/>
+    </row>
+    <row r="115" spans="2:8">
+      <c r="B115" s="1">
+        <v>1216</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D115" s="3">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="G115" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H115" s="5"/>
+    </row>
+    <row r="116" spans="2:8">
+      <c r="B116" s="1">
+        <v>824</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="D116" s="3">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="E116" t="s">
+        <v>280</v>
+      </c>
+      <c r="G116" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H116" s="5"/>
+    </row>
+    <row r="117" spans="2:8">
+      <c r="B117" s="1">
+        <v>932</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D117" s="3">
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="E117" t="s">
+        <v>272</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H117" s="5"/>
+    </row>
+    <row r="118" spans="2:8">
+      <c r="B118" s="1">
+        <v>234</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D118" s="3">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="E118" t="s">
+        <v>223</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H118" s="5"/>
+    </row>
+    <row r="119" spans="2:8">
+      <c r="B119" s="1">
+        <v>865</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D119" s="3">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="G119" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H119" s="5"/>
+    </row>
+    <row r="120" spans="2:8">
+      <c r="B120" s="1">
+        <v>297</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D120" s="3">
+        <v>0.52</v>
+      </c>
+      <c r="E120" t="s">
+        <v>239</v>
+      </c>
+      <c r="G120" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H120" s="5"/>
+    </row>
+    <row r="121" spans="2:8">
+      <c r="B121" s="1">
+        <v>637</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="D121" s="3">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="E121" t="s">
+        <v>119</v>
+      </c>
+      <c r="G121" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H121" s="5"/>
+    </row>
+    <row r="122" spans="2:8">
+      <c r="B122" s="1">
+        <v>616</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D122" s="3">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="G122" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H122" s="5"/>
+    </row>
+    <row r="123" spans="2:8">
+      <c r="B123" s="1">
+        <v>443</v>
+      </c>
+      <c r="C123" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="D123" s="3">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="E123" t="s">
+        <v>229</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H123" s="5"/>
+    </row>
+    <row r="124" spans="2:8">
+      <c r="B124" s="1">
+        <v>681</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D124" s="3">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="E124" t="s">
+        <v>326</v>
+      </c>
+      <c r="G124" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H124" s="5"/>
+    </row>
+    <row r="125" spans="2:8">
+      <c r="B125" s="1">
+        <v>934</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D125" s="3">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="E125" t="s">
+        <v>301</v>
+      </c>
+      <c r="G125" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H125" s="5"/>
+    </row>
+    <row r="126" spans="2:8">
+      <c r="B126" s="1">
+        <v>647</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D126" s="3">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="E126" t="s">
+        <v>305</v>
+      </c>
+      <c r="G126" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H126" s="5"/>
+    </row>
+    <row r="127" spans="2:8">
+      <c r="B127" s="1">
+        <v>691</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D127" s="3">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="G127" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H127" s="5"/>
+    </row>
+    <row r="128" spans="2:8">
+      <c r="B128" s="1">
+        <v>341</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D128" s="3">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="G128" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H128" s="5"/>
+    </row>
+    <row r="129" spans="2:8">
+      <c r="B129" s="1">
+        <v>896</v>
+      </c>
+      <c r="C129" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="D129" s="3">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="E129" t="s">
+        <v>222</v>
+      </c>
+      <c r="G129" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H129" s="5"/>
+    </row>
+    <row r="130" spans="2:8">
+      <c r="B130" s="1">
+        <v>1559</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D130" s="3">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="E130" t="s">
+        <v>258</v>
+      </c>
+      <c r="G130" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H130" s="5"/>
+    </row>
+    <row r="131" spans="2:8" ht="37">
+      <c r="B131" s="1">
+        <v>785</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D131" s="3">
+        <v>0.495</v>
+      </c>
+      <c r="E131" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="G131" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H131" s="5"/>
+    </row>
+    <row r="132" spans="2:8" ht="46">
+      <c r="B132" s="1">
+        <v>477</v>
+      </c>
+      <c r="C132" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="D132" s="3">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="E132" t="s">
+        <v>256</v>
+      </c>
+      <c r="F132" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="G132" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H132" s="5"/>
+    </row>
+    <row r="133" spans="2:8" ht="37">
+      <c r="B133" s="1">
+        <v>298</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D133" s="3">
+        <v>0.495</v>
+      </c>
+      <c r="E133" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="G133" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H133" s="5"/>
+    </row>
+    <row r="134" spans="2:8">
+      <c r="B134" s="1">
+        <v>348</v>
+      </c>
+      <c r="C134" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="D134" s="3">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="E134" t="s">
+        <v>237</v>
+      </c>
+      <c r="G134" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H134" s="5"/>
+    </row>
+    <row r="135" spans="2:8">
+      <c r="B135" s="1">
+        <v>43</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D135" s="3">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="E135" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="G135" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H135" s="5"/>
+    </row>
+    <row r="136" spans="2:8">
+      <c r="B136" s="1">
+        <v>1424</v>
+      </c>
+      <c r="C136" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="D136" s="3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E136" t="s">
+        <v>232</v>
+      </c>
+      <c r="G136" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H136" s="5"/>
+    </row>
+    <row r="137" spans="2:8">
+      <c r="B137" s="1">
+        <v>1554</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D137" s="3">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="G137" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H137" s="5"/>
+    </row>
+    <row r="138" spans="2:8">
+      <c r="B138" s="1">
+        <v>556</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D138" s="3">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="G138" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H138" s="5"/>
+    </row>
+    <row r="139" spans="2:8">
+      <c r="B139" s="1">
+        <v>329</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D139" s="3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="G139" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H139" s="5"/>
+    </row>
+    <row r="140" spans="2:8">
+      <c r="B140" s="1">
+        <v>1944</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D140" s="3">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="G140" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H140" s="5"/>
+    </row>
+    <row r="141" spans="2:8">
+      <c r="B141" s="1">
+        <v>1060</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D141" s="3">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="G141" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H141" s="5"/>
+    </row>
+    <row r="142" spans="2:8">
+      <c r="B142" s="1">
+        <v>778</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D142" s="3">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G142" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H142" s="5"/>
+    </row>
+    <row r="143" spans="2:8">
+      <c r="B143" s="1">
+        <v>1123</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D143" s="3">
+        <v>0.69</v>
+      </c>
+      <c r="E143" t="s">
+        <v>282</v>
+      </c>
+      <c r="G143" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H143" s="5"/>
+    </row>
+    <row r="144" spans="2:8">
+      <c r="B144" s="1">
+        <v>378</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D144" s="3">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="G144" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H144" s="5"/>
+    </row>
+    <row r="145" spans="2:8">
+      <c r="B145" s="1">
+        <v>732</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D145" s="3">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="E145" t="s">
+        <v>337</v>
+      </c>
+      <c r="G145" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H145" s="5"/>
+    </row>
+    <row r="146" spans="2:8">
+      <c r="B146" s="1">
+        <v>694</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D146" s="3">
+        <v>0.59</v>
+      </c>
+      <c r="G146" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H146" s="5"/>
+    </row>
+    <row r="147" spans="2:8">
+      <c r="B147" s="1">
+        <v>510</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D147" s="3">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="G147" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H147" s="5"/>
+    </row>
+    <row r="148" spans="2:8">
+      <c r="B148" s="1">
+        <v>340</v>
+      </c>
+      <c r="C148" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="D148" s="3">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="E148" t="s">
+        <v>234</v>
+      </c>
+      <c r="G148" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H148" s="5"/>
+    </row>
+    <row r="149" spans="2:8">
+      <c r="B149" s="1">
+        <v>503</v>
+      </c>
+      <c r="C149" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D149" s="3">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="E149" t="s">
+        <v>231</v>
+      </c>
+      <c r="G149" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H149" s="5"/>
+    </row>
+    <row r="150" spans="2:8">
+      <c r="B150" s="1">
+        <v>581</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D150" s="3">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="G150" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H150" s="5"/>
+    </row>
+    <row r="151" spans="2:8">
+      <c r="B151" s="1">
+        <v>1699</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D151" s="3">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="G151" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H151" s="5"/>
+    </row>
+    <row r="152" spans="2:8">
+      <c r="B152" s="1">
+        <v>1027</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D152" s="3">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="E152" t="s">
+        <v>296</v>
+      </c>
+      <c r="G152" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H152" s="5"/>
+    </row>
+    <row r="153" spans="2:8">
+      <c r="B153" s="1">
+        <v>1614</v>
+      </c>
+      <c r="C153" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D153" s="3">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="E153" t="s">
+        <v>238</v>
+      </c>
+      <c r="G153" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H153" s="5"/>
+    </row>
+    <row r="154" spans="2:8">
+      <c r="B154" s="1">
+        <v>1110</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D154" s="3">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="G154" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H154" s="5"/>
+    </row>
+    <row r="155" spans="2:8">
+      <c r="B155" s="1">
+        <v>1305</v>
+      </c>
+      <c r="C155" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="D155" s="3">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="E155" t="s">
+        <v>334</v>
+      </c>
+      <c r="G155" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H155" s="5"/>
+    </row>
+    <row r="156" spans="2:8">
+      <c r="B156" s="1">
+        <v>116</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D156" s="3">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="G156" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H156" s="5"/>
+    </row>
+    <row r="157" spans="2:8">
+      <c r="B157" s="1">
+        <v>239</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D157" s="3">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="G157" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H157" s="5"/>
+    </row>
+    <row r="158" spans="2:8">
+      <c r="B158" s="1">
+        <v>489</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D158" s="3">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="G158" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H158" s="5"/>
+    </row>
+    <row r="159" spans="2:8">
+      <c r="B159" s="1">
+        <v>958</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D159" s="3">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="G159" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H159" s="5"/>
+    </row>
+    <row r="160" spans="2:8">
+      <c r="B160" s="1">
+        <v>387</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="D160" s="3">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="E160" t="s">
+        <v>230</v>
+      </c>
+      <c r="G160" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H160" s="5"/>
+    </row>
+    <row r="161" spans="2:8">
+      <c r="B161" s="1">
+        <v>494</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D161" s="3">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="E161" t="s">
+        <v>298</v>
+      </c>
+      <c r="G161" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H161" s="5"/>
+    </row>
+    <row r="162" spans="2:8">
+      <c r="B162" s="1">
+        <v>739</v>
+      </c>
+      <c r="C162" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="D162" s="3">
+        <v>0.66</v>
+      </c>
+      <c r="E162" t="s">
+        <v>335</v>
+      </c>
+      <c r="G162" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H162" s="5"/>
+    </row>
+    <row r="163" spans="2:8">
+      <c r="B163" s="1">
+        <v>22</v>
+      </c>
+      <c r="C163" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="D163" s="3">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="E163" t="s">
+        <v>339</v>
+      </c>
+      <c r="G163" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H163" s="5"/>
+    </row>
+    <row r="164" spans="2:8">
+      <c r="B164" s="1">
+        <v>815</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D164" s="3">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="G164" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H164" s="5"/>
+    </row>
+    <row r="165" spans="2:8">
+      <c r="B165" s="1">
+        <v>1541</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D165" s="3">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="G165" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H165" s="5"/>
+    </row>
+    <row r="166" spans="2:8">
+      <c r="B166" s="1">
+        <v>10</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D166" s="3">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G166" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H166" s="5"/>
+    </row>
+    <row r="167" spans="2:8">
+      <c r="B167" s="1">
+        <v>1884</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D167" s="3">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="G167" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H167" s="5"/>
+    </row>
+    <row r="168" spans="2:8">
+      <c r="B168" s="1">
+        <v>157</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D168" s="3">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="G168" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H168" s="5"/>
+    </row>
+    <row r="169" spans="2:8">
+      <c r="B169" s="1">
+        <v>4</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D169" s="3">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="G169" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H169" s="5"/>
+    </row>
+    <row r="170" spans="2:8">
+      <c r="B170" s="1">
+        <v>1269</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D170" s="3">
+        <v>0.434</v>
+      </c>
+      <c r="G170" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H170" s="5"/>
+    </row>
+    <row r="171" spans="2:8">
+      <c r="B171" s="1">
+        <v>939</v>
+      </c>
+      <c r="C171" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="D171" s="3">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="E171" t="s">
+        <v>299</v>
+      </c>
+      <c r="G171" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H171" s="5"/>
+    </row>
+    <row r="172" spans="2:8">
+      <c r="B172" s="1">
+        <v>463</v>
+      </c>
+      <c r="C172" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="D172" s="3">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="E172" t="s">
+        <v>340</v>
+      </c>
+      <c r="G172" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H172" s="5"/>
+    </row>
+    <row r="173" spans="2:8">
+      <c r="B173" s="1">
+        <v>113</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D173" s="3">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="G173" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H173" s="5"/>
+    </row>
+    <row r="174" spans="2:8">
+      <c r="B174" s="1">
+        <v>416</v>
+      </c>
+      <c r="C174" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="D174" s="3">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="E174" t="s">
+        <v>257</v>
+      </c>
+      <c r="G174" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H174" s="5"/>
+    </row>
+    <row r="175" spans="2:8" ht="37">
+      <c r="B175" s="1">
+        <v>1213</v>
+      </c>
+      <c r="C175" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="D175" s="3">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="E175" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="G175" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H175" s="5"/>
+    </row>
+    <row r="176" spans="2:8">
+      <c r="B176" s="1">
+        <v>844</v>
+      </c>
+      <c r="C176" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="D176" s="3">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="E176" t="s">
+        <v>119</v>
+      </c>
+      <c r="G176" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="2:5">
+      <c r="B177" s="1">
+        <v>1275</v>
+      </c>
+      <c r="C177" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="D177" s="3">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="E177" t="s">
+        <v>119</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:H176" xr:uid="{99E920BA-5A90-344E-AEA7-44B85D85078E}"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="https://leetcode.com/problems/minimum-remove-to-make-valid-parentheses" xr:uid="{84D7B438-7FF6-2742-A62F-F1080841D629}"/>
     <hyperlink ref="C3" r:id="rId2" display="https://leetcode.com/problems/valid-palindrome-ii" xr:uid="{9D8A846F-76AF-D944-B579-A21828BE6477}"/>
@@ -2470,52 +5073,128 @@
     <hyperlink ref="C54" r:id="rId53" display="https://leetcode.com/problems/nested-list-weight-sum" xr:uid="{1F4F3845-27A7-2C48-AC75-F496D5DAFCC0}"/>
     <hyperlink ref="C55" r:id="rId54" display="https://leetcode.com/problems/custom-sort-string" xr:uid="{190D44E2-E634-1B42-B74C-FC8ACBE31BC2}"/>
     <hyperlink ref="C56" r:id="rId55" display="https://leetcode.com/problems/capacity-to-ship-packages-within-d-days" xr:uid="{9AEF62EE-F0AC-DF41-9F9A-54C37624A7FB}"/>
-    <hyperlink ref="C57" r:id="rId56" display="https://leetcode.com/problems/recyclable-and-low-fat-products" xr:uid="{86C6FC72-60A6-E041-826D-EDA0273E30CD}"/>
-    <hyperlink ref="C58" r:id="rId57" display="https://leetcode.com/problems/powx-n" xr:uid="{7C46CC53-287C-1C4B-9E9A-6A7B633B4BDA}"/>
-    <hyperlink ref="C59" r:id="rId58" display="https://leetcode.com/problems/find-peak-element" xr:uid="{9835C55D-3A91-C947-948C-3ACB9F84BBE9}"/>
-    <hyperlink ref="C60" r:id="rId59" display="https://leetcode.com/problems/divide-two-integers" xr:uid="{2973B3F9-FA02-DA49-A97D-CDE26215C9E4}"/>
-    <hyperlink ref="C61" r:id="rId60" display="https://leetcode.com/problems/closest-binary-search-tree-value" xr:uid="{AC8B83B7-DC17-E44A-8117-0421097D9B40}"/>
-    <hyperlink ref="C62" r:id="rId61" display="https://leetcode.com/problems/max-consecutive-ones-iii" xr:uid="{02B548D8-A386-A849-8446-9678E752B0A0}"/>
-    <hyperlink ref="C63" r:id="rId62" display="https://leetcode.com/problems/valid-palindrome" xr:uid="{8DCF867D-F80F-D74D-AC86-07CD84FFDB19}"/>
-    <hyperlink ref="C64" r:id="rId63" display="https://leetcode.com/problems/diagonal-traverse" xr:uid="{9FD580A8-40E9-9549-8A12-5E78C5D4713D}"/>
-    <hyperlink ref="C65" r:id="rId64" display="https://leetcode.com/problems/merge-sorted-array" xr:uid="{345AB583-6957-B54C-AABB-973E322D0BCE}"/>
-    <hyperlink ref="C66" r:id="rId65" display="https://leetcode.com/problems/palindrome-permutation" xr:uid="{36501A96-15F3-634D-8EDD-6F7A6EE18DD3}"/>
-    <hyperlink ref="C67" r:id="rId66" display="https://leetcode.com/problems/construct-binary-tree-from-string" xr:uid="{0F46BB47-9C2F-F843-8585-B98ACE46A471}"/>
-    <hyperlink ref="C68" r:id="rId67" display="https://leetcode.com/problems/interval-list-intersections" xr:uid="{7B3C7903-7649-7E49-8202-C4E0DDBCB608}"/>
-    <hyperlink ref="C69" r:id="rId68" display="https://leetcode.com/problems/minimum-window-substring" xr:uid="{5841932E-7410-6640-9377-23E2DF4D7C92}"/>
-    <hyperlink ref="C70" r:id="rId69" display="https://leetcode.com/problems/kth-missing-positive-number" xr:uid="{E356ED05-EB41-684F-B750-57213442336A}"/>
-    <hyperlink ref="C71" r:id="rId70" display="https://leetcode.com/problems/clone-graph" xr:uid="{07601E98-87BB-434D-B2EE-3447AE27BC3D}"/>
-    <hyperlink ref="C72" r:id="rId71" display="https://leetcode.com/problems/merge-k-sorted-lists" xr:uid="{97CFF859-CC0E-FD40-B12C-87248E23BE8D}"/>
-    <hyperlink ref="C73" r:id="rId72" display="https://leetcode.com/problems/integer-to-english-words" xr:uid="{9DE0254D-CBB6-3A40-A56E-DF0AA8133C60}"/>
-    <hyperlink ref="C74" r:id="rId73" display="https://leetcode.com/problems/range-sum-query-2d-immutable" xr:uid="{8AD78D4D-A577-8244-ABED-9538C0031684}"/>
-    <hyperlink ref="C75" r:id="rId74" display="https://leetcode.com/problems/squares-of-a-sorted-array" xr:uid="{A9843844-83B0-874B-9C49-FBBABC1089E8}"/>
-    <hyperlink ref="C76" r:id="rId75" display="https://leetcode.com/problems/cutting-ribbons" xr:uid="{F8F7147C-4AA7-2840-B460-4743D4846637}"/>
-    <hyperlink ref="C77" r:id="rId76" display="https://leetcode.com/problems/find-k-closest-elements" xr:uid="{C08285BA-48EE-9F44-B3DB-9109B98B25DB}"/>
-    <hyperlink ref="C78" r:id="rId77" display="https://leetcode.com/problems/sum-root-to-leaf-numbers" xr:uid="{C7BC8276-E923-D74B-B119-7A39221EF01C}"/>
-    <hyperlink ref="C79" r:id="rId78" display="https://leetcode.com/problems/product-of-two-run-length-encoded-arrays" xr:uid="{4CCDA8DC-1127-0543-A61B-C248B92AA3AA}"/>
-    <hyperlink ref="C80" r:id="rId79" display="https://leetcode.com/problems/copy-list-with-random-pointer" xr:uid="{E52CB033-2A31-084C-B8D2-DF7EA817EF7F}"/>
-    <hyperlink ref="C81" r:id="rId80" display="https://leetcode.com/problems/insert-delete-getrandom-o1" xr:uid="{3123780A-72E8-9746-9729-AD0EBD25A7DF}"/>
-    <hyperlink ref="C82" r:id="rId81" display="https://leetcode.com/problems/can-place-flowers" xr:uid="{C45A11C7-AC7D-1745-9AA4-26ED6C47369F}"/>
-    <hyperlink ref="C83" r:id="rId82" display="https://leetcode.com/problems/diameter-of-n-ary-tree" xr:uid="{5A63EF54-90D1-D246-ACEE-94046EFF70DF}"/>
-    <hyperlink ref="C84" r:id="rId83" display="https://leetcode.com/problems/minimum-cost-for-tickets" xr:uid="{9CEBF2E8-C779-054A-9AD5-B3B1B62D35CE}"/>
-    <hyperlink ref="C85" r:id="rId84" display="https://leetcode.com/problems/task-scheduler" xr:uid="{50A79418-DDA8-F947-8187-AD33825C3581}"/>
-    <hyperlink ref="C86" r:id="rId85" display="https://leetcode.com/problems/remove-all-adjacent-duplicates-in-string-ii" xr:uid="{C6DAAF5C-C162-A948-9F8C-8D5013982C0A}"/>
-    <hyperlink ref="C87" r:id="rId86" display="https://leetcode.com/problems/word-ladder" xr:uid="{7E1379F2-7C99-F845-8400-10E96C15AB2E}"/>
-    <hyperlink ref="C88" r:id="rId87" display="https://leetcode.com/problems/moving-average-from-data-stream" xr:uid="{E8ED9136-E42E-AB46-886B-3CE1BFE5B86D}"/>
-    <hyperlink ref="C89" r:id="rId88" display="https://leetcode.com/problems/best-meeting-point" xr:uid="{148C6882-EDD7-444D-96D0-218513290B04}"/>
-    <hyperlink ref="C90" r:id="rId89" display="https://leetcode.com/problems/find-first-and-last-position-of-element-in-sorted-array" xr:uid="{63F7B041-4F29-C24F-B871-6FFE8434242A}"/>
-    <hyperlink ref="C91" r:id="rId90" display="https://leetcode.com/problems/missing-ranges" xr:uid="{39389D80-8BD9-A047-BFC7-5EC8D2BF5B4F}"/>
-    <hyperlink ref="C92" r:id="rId91" display="https://leetcode.com/problems/expression-add-operators" xr:uid="{97C467D9-EF2D-6D4A-A0AB-5950B3CFC28B}"/>
-    <hyperlink ref="C93" r:id="rId92" display="https://leetcode.com/problems/string-to-integer-atoi" xr:uid="{4D7DE9A9-F8D9-294C-A6AD-5478894691C9}"/>
-    <hyperlink ref="C94" r:id="rId93" display="https://leetcode.com/problems/find-largest-value-in-each-tree-row" xr:uid="{2CA0B6A7-77A0-414F-89D0-5F87F3412416}"/>
-    <hyperlink ref="C95" r:id="rId94" display="https://leetcode.com/problems/bulb-switcher" xr:uid="{E1949F1B-B591-6C49-A50A-4D319324CD84}"/>
-    <hyperlink ref="C96" r:id="rId95" display="https://leetcode.com/problems/read-n-characters-given-read4-ii-call-multiple-times" xr:uid="{2D8CCA16-50F0-C145-A7BC-E3A3D854777F}"/>
-    <hyperlink ref="C97" r:id="rId96" display="https://leetcode.com/problems/basic-calculator" xr:uid="{0E0C7A7D-AB27-274D-8210-40C59F7BD6DE}"/>
-    <hyperlink ref="C98" r:id="rId97" display="https://leetcode.com/problems/utf-8-validation" xr:uid="{A8CEC42D-62FB-EB43-A411-DA9EB9626971}"/>
-    <hyperlink ref="C99" r:id="rId98" display="https://leetcode.com/problems/flatten-binary-tree-to-linked-list" xr:uid="{B64FF77D-A420-414B-A535-95FAE2E95B90}"/>
-    <hyperlink ref="C100" r:id="rId99" display="https://leetcode.com/problems/find-pivot-index" xr:uid="{F7983F3B-B181-BA4A-B213-9C66567FD083}"/>
-    <hyperlink ref="C101" r:id="rId100" display="https://leetcode.com/problems/word-ladder-ii" xr:uid="{05E292A4-EE8F-B34C-9BEB-8B968636A816}"/>
-    <hyperlink ref="C102" r:id="rId101" display="https://leetcode.com/problems/split-array-with-equal-sum" xr:uid="{01B5E503-F092-EB46-A036-04F3BC9B0295}"/>
+    <hyperlink ref="C57" r:id="rId56" display="https://leetcode.com/problems/powx-n" xr:uid="{7C46CC53-287C-1C4B-9E9A-6A7B633B4BDA}"/>
+    <hyperlink ref="C58" r:id="rId57" display="https://leetcode.com/problems/find-peak-element" xr:uid="{9835C55D-3A91-C947-948C-3ACB9F84BBE9}"/>
+    <hyperlink ref="C59" r:id="rId58" display="https://leetcode.com/problems/divide-two-integers" xr:uid="{2973B3F9-FA02-DA49-A97D-CDE26215C9E4}"/>
+    <hyperlink ref="C60" r:id="rId59" display="https://leetcode.com/problems/closest-binary-search-tree-value" xr:uid="{AC8B83B7-DC17-E44A-8117-0421097D9B40}"/>
+    <hyperlink ref="C61" r:id="rId60" display="https://leetcode.com/problems/max-consecutive-ones-iii" xr:uid="{02B548D8-A386-A849-8446-9678E752B0A0}"/>
+    <hyperlink ref="C62" r:id="rId61" display="https://leetcode.com/problems/valid-palindrome" xr:uid="{8DCF867D-F80F-D74D-AC86-07CD84FFDB19}"/>
+    <hyperlink ref="C63" r:id="rId62" display="https://leetcode.com/problems/diagonal-traverse" xr:uid="{9FD580A8-40E9-9549-8A12-5E78C5D4713D}"/>
+    <hyperlink ref="C64" r:id="rId63" display="https://leetcode.com/problems/merge-sorted-array" xr:uid="{345AB583-6957-B54C-AABB-973E322D0BCE}"/>
+    <hyperlink ref="C65" r:id="rId64" display="https://leetcode.com/problems/palindrome-permutation" xr:uid="{36501A96-15F3-634D-8EDD-6F7A6EE18DD3}"/>
+    <hyperlink ref="C66" r:id="rId65" display="https://leetcode.com/problems/construct-binary-tree-from-string" xr:uid="{0F46BB47-9C2F-F843-8585-B98ACE46A471}"/>
+    <hyperlink ref="C67" r:id="rId66" display="https://leetcode.com/problems/interval-list-intersections" xr:uid="{7B3C7903-7649-7E49-8202-C4E0DDBCB608}"/>
+    <hyperlink ref="C68" r:id="rId67" display="https://leetcode.com/problems/minimum-window-substring" xr:uid="{5841932E-7410-6640-9377-23E2DF4D7C92}"/>
+    <hyperlink ref="C69" r:id="rId68" display="https://leetcode.com/problems/kth-missing-positive-number" xr:uid="{E356ED05-EB41-684F-B750-57213442336A}"/>
+    <hyperlink ref="C70" r:id="rId69" display="https://leetcode.com/problems/clone-graph" xr:uid="{07601E98-87BB-434D-B2EE-3447AE27BC3D}"/>
+    <hyperlink ref="C71" r:id="rId70" display="https://leetcode.com/problems/merge-k-sorted-lists" xr:uid="{97CFF859-CC0E-FD40-B12C-87248E23BE8D}"/>
+    <hyperlink ref="C72" r:id="rId71" display="https://leetcode.com/problems/integer-to-english-words" xr:uid="{9DE0254D-CBB6-3A40-A56E-DF0AA8133C60}"/>
+    <hyperlink ref="C73" r:id="rId72" display="https://leetcode.com/problems/range-sum-query-2d-immutable" xr:uid="{8AD78D4D-A577-8244-ABED-9538C0031684}"/>
+    <hyperlink ref="C74" r:id="rId73" display="https://leetcode.com/problems/squares-of-a-sorted-array" xr:uid="{A9843844-83B0-874B-9C49-FBBABC1089E8}"/>
+    <hyperlink ref="C75" r:id="rId74" display="https://leetcode.com/problems/cutting-ribbons" xr:uid="{F8F7147C-4AA7-2840-B460-4743D4846637}"/>
+    <hyperlink ref="C76" r:id="rId75" display="https://leetcode.com/problems/find-k-closest-elements" xr:uid="{C08285BA-48EE-9F44-B3DB-9109B98B25DB}"/>
+    <hyperlink ref="C77" r:id="rId76" display="https://leetcode.com/problems/sum-root-to-leaf-numbers" xr:uid="{C7BC8276-E923-D74B-B119-7A39221EF01C}"/>
+    <hyperlink ref="C78" r:id="rId77" display="https://leetcode.com/problems/product-of-two-run-length-encoded-arrays" xr:uid="{4CCDA8DC-1127-0543-A61B-C248B92AA3AA}"/>
+    <hyperlink ref="C79" r:id="rId78" display="https://leetcode.com/problems/copy-list-with-random-pointer" xr:uid="{E52CB033-2A31-084C-B8D2-DF7EA817EF7F}"/>
+    <hyperlink ref="C80" r:id="rId79" display="https://leetcode.com/problems/insert-delete-getrandom-o1" xr:uid="{3123780A-72E8-9746-9729-AD0EBD25A7DF}"/>
+    <hyperlink ref="C81" r:id="rId80" display="https://leetcode.com/problems/can-place-flowers" xr:uid="{C45A11C7-AC7D-1745-9AA4-26ED6C47369F}"/>
+    <hyperlink ref="C82" r:id="rId81" display="https://leetcode.com/problems/diameter-of-n-ary-tree" xr:uid="{5A63EF54-90D1-D246-ACEE-94046EFF70DF}"/>
+    <hyperlink ref="C83" r:id="rId82" display="https://leetcode.com/problems/minimum-cost-for-tickets" xr:uid="{9CEBF2E8-C779-054A-9AD5-B3B1B62D35CE}"/>
+    <hyperlink ref="C84" r:id="rId83" display="https://leetcode.com/problems/task-scheduler" xr:uid="{50A79418-DDA8-F947-8187-AD33825C3581}"/>
+    <hyperlink ref="C85" r:id="rId84" display="https://leetcode.com/problems/remove-all-adjacent-duplicates-in-string-ii" xr:uid="{C6DAAF5C-C162-A948-9F8C-8D5013982C0A}"/>
+    <hyperlink ref="C86" r:id="rId85" display="https://leetcode.com/problems/word-ladder" xr:uid="{7E1379F2-7C99-F845-8400-10E96C15AB2E}"/>
+    <hyperlink ref="C87" r:id="rId86" display="https://leetcode.com/problems/moving-average-from-data-stream" xr:uid="{E8ED9136-E42E-AB46-886B-3CE1BFE5B86D}"/>
+    <hyperlink ref="C88" r:id="rId87" display="https://leetcode.com/problems/best-meeting-point" xr:uid="{148C6882-EDD7-444D-96D0-218513290B04}"/>
+    <hyperlink ref="C89" r:id="rId88" display="https://leetcode.com/problems/find-first-and-last-position-of-element-in-sorted-array" xr:uid="{63F7B041-4F29-C24F-B871-6FFE8434242A}"/>
+    <hyperlink ref="C90" r:id="rId89" display="https://leetcode.com/problems/missing-ranges" xr:uid="{39389D80-8BD9-A047-BFC7-5EC8D2BF5B4F}"/>
+    <hyperlink ref="C91" r:id="rId90" display="https://leetcode.com/problems/expression-add-operators" xr:uid="{97C467D9-EF2D-6D4A-A0AB-5950B3CFC28B}"/>
+    <hyperlink ref="C92" r:id="rId91" display="https://leetcode.com/problems/string-to-integer-atoi" xr:uid="{4D7DE9A9-F8D9-294C-A6AD-5478894691C9}"/>
+    <hyperlink ref="C93" r:id="rId92" display="https://leetcode.com/problems/find-largest-value-in-each-tree-row" xr:uid="{2CA0B6A7-77A0-414F-89D0-5F87F3412416}"/>
+    <hyperlink ref="C94" r:id="rId93" display="https://leetcode.com/problems/bulb-switcher" xr:uid="{E1949F1B-B591-6C49-A50A-4D319324CD84}"/>
+    <hyperlink ref="C95" r:id="rId94" display="https://leetcode.com/problems/read-n-characters-given-read4-ii-call-multiple-times" xr:uid="{2D8CCA16-50F0-C145-A7BC-E3A3D854777F}"/>
+    <hyperlink ref="C96" r:id="rId95" display="https://leetcode.com/problems/basic-calculator" xr:uid="{0E0C7A7D-AB27-274D-8210-40C59F7BD6DE}"/>
+    <hyperlink ref="C97" r:id="rId96" display="https://leetcode.com/problems/utf-8-validation" xr:uid="{A8CEC42D-62FB-EB43-A411-DA9EB9626971}"/>
+    <hyperlink ref="C98" r:id="rId97" display="https://leetcode.com/problems/flatten-binary-tree-to-linked-list" xr:uid="{B64FF77D-A420-414B-A535-95FAE2E95B90}"/>
+    <hyperlink ref="C99" r:id="rId98" display="https://leetcode.com/problems/find-pivot-index" xr:uid="{F7983F3B-B181-BA4A-B213-9C66567FD083}"/>
+    <hyperlink ref="C100" r:id="rId99" display="https://leetcode.com/problems/word-ladder-ii" xr:uid="{05E292A4-EE8F-B34C-9BEB-8B968636A816}"/>
+    <hyperlink ref="C101" r:id="rId100" display="https://leetcode.com/problems/split-array-with-equal-sum" xr:uid="{01B5E503-F092-EB46-A036-04F3BC9B0295}"/>
+    <hyperlink ref="C102" r:id="rId101" tooltip="Max Area of Island" display="https://leetcode.com/problems/max-area-of-island" xr:uid="{C15C7C67-20C4-714B-8EE6-71462C8993D1}"/>
+    <hyperlink ref="C103" r:id="rId102" tooltip="Maximum Level Sum of a Binary Tree" display="https://leetcode.com/problems/maximum-level-sum-of-a-binary-tree" xr:uid="{1C14480D-438A-3643-A762-A44790CA02A5}"/>
+    <hyperlink ref="C104" r:id="rId103" tooltip="Knight Dialer" display="https://leetcode.com/problems/knight-dialer" xr:uid="{EE7E00F9-FA34-B243-9655-22978AB10D68}"/>
+    <hyperlink ref="C105" r:id="rId104" tooltip="Meeting Rooms II" display="https://leetcode.com/problems/meeting-rooms-ii" xr:uid="{B185F264-7267-B24B-B37F-3757AB3FA32A}"/>
+    <hyperlink ref="C106" r:id="rId105" tooltip="3Sum Closest" display="https://leetcode.com/problems/3sum-closest" xr:uid="{966410DB-19B3-194B-98FF-1E6B9DA8E892}"/>
+    <hyperlink ref="C107" r:id="rId106" tooltip="Remove Nth Node From End of List" display="https://leetcode.com/problems/remove-nth-node-from-end-of-list" xr:uid="{391E76D0-22C2-424F-94FF-FFF934938010}"/>
+    <hyperlink ref="C108" r:id="rId107" tooltip="Combination Sum" display="https://leetcode.com/problems/combination-sum" xr:uid="{4A775BA0-9C18-4546-B900-12074D95FCA4}"/>
+    <hyperlink ref="C109" r:id="rId108" tooltip="Reorganize String" display="https://leetcode.com/problems/reorganize-string" xr:uid="{CF5FFCF4-35C7-7C42-86BC-E56639511258}"/>
+    <hyperlink ref="C110" r:id="rId109" tooltip="Range Module" display="https://leetcode.com/problems/range-module" xr:uid="{C00C22A6-5EB3-684A-A08A-87F19E3C06DE}"/>
+    <hyperlink ref="C111" r:id="rId110" tooltip="Shortest Path in Binary Matrix" display="https://leetcode.com/problems/shortest-path-in-binary-matrix" xr:uid="{3B57051B-433B-B044-9122-E8B9C64FACBF}"/>
+    <hyperlink ref="C112" r:id="rId111" tooltip="Design Add and Search Words Data Structure" display="https://leetcode.com/problems/design-add-and-search-words-data-structure" xr:uid="{CA148E3D-BCE5-A640-871E-63CD68BB1579}"/>
+    <hyperlink ref="C113" r:id="rId112" tooltip="Subsets" display="https://leetcode.com/problems/subsets" xr:uid="{779D8099-5B7B-3148-9FD4-BF5B1E3506D2}"/>
+    <hyperlink ref="C114" r:id="rId113" tooltip="Walls and Gates" display="https://leetcode.com/problems/walls-and-gates" xr:uid="{69BD3BCC-0D41-094D-BE2E-442D98F86309}"/>
+    <hyperlink ref="C115" r:id="rId114" tooltip="Valid Palindrome III" display="https://leetcode.com/problems/valid-palindrome-iii" xr:uid="{4307B0FE-32C4-F84F-BAB0-E33FD4CF8F8F}"/>
+    <hyperlink ref="C116" r:id="rId115" tooltip="Goat Latin" display="https://leetcode.com/problems/goat-latin" xr:uid="{85C60F9D-2639-6948-B350-AFE99FF97E20}"/>
+    <hyperlink ref="C117" r:id="rId116" tooltip="Beautiful Array" display="https://leetcode.com/problems/beautiful-array" xr:uid="{4D5DFEA4-2D1E-B54F-9211-E9FEEE069F7A}"/>
+    <hyperlink ref="C118" r:id="rId117" tooltip="Palindrome Linked List" display="https://leetcode.com/problems/palindrome-linked-list" xr:uid="{5739DEA8-9B97-7F42-AE40-7E0D60B01DC3}"/>
+    <hyperlink ref="C119" r:id="rId118" tooltip="Smallest Subtree with all the Deepest Nodes" display="https://leetcode.com/problems/smallest-subtree-with-all-the-deepest-nodes" xr:uid="{EB371F27-311F-A747-BC11-BCBE52531495}"/>
+    <hyperlink ref="C120" r:id="rId119" tooltip="Serialize and Deserialize Binary Tree" display="https://leetcode.com/problems/serialize-and-deserialize-binary-tree" xr:uid="{3B52203F-79CC-9D45-AFF1-A2E3324AAC50}"/>
+    <hyperlink ref="C121" r:id="rId120" tooltip="Average of Levels in Binary Tree" display="https://leetcode.com/problems/average-of-levels-in-binary-tree" xr:uid="{C3FD75D6-0DA1-2E41-8ED4-A84DF34569FB}"/>
+    <hyperlink ref="C122" r:id="rId121" tooltip="Add Bold Tag in String" display="https://leetcode.com/problems/add-bold-tag-in-string" xr:uid="{F66ADD88-BEE5-4B40-BE3F-D4C0D0323794}"/>
+    <hyperlink ref="C123" r:id="rId122" tooltip="String Compression" display="https://leetcode.com/problems/string-compression" xr:uid="{8A3CFF54-BB16-2E47-9225-01ABD832EB3E}"/>
+    <hyperlink ref="C124" r:id="rId123" tooltip="Next Closest Time" display="https://leetcode.com/problems/next-closest-time" xr:uid="{3B195708-3921-294F-9802-F4A7CEC66FE6}"/>
+    <hyperlink ref="C125" r:id="rId124" tooltip="Shortest Bridge" display="https://leetcode.com/problems/shortest-bridge" xr:uid="{BCDE4B27-C81D-4B4F-9307-8336AB38727F}"/>
+    <hyperlink ref="C126" r:id="rId125" tooltip="Palindromic Substrings" display="https://leetcode.com/problems/palindromic-substrings" xr:uid="{6DEED169-9237-1F47-A05E-2BC6BC084F52}"/>
+    <hyperlink ref="C127" r:id="rId126" tooltip="Stickers to Spell Word" display="https://leetcode.com/problems/stickers-to-spell-word" xr:uid="{8E7A2477-62D0-094B-B939-018F549208C2}"/>
+    <hyperlink ref="C128" r:id="rId127" tooltip="Flatten Nested List Iterator" display="https://leetcode.com/problems/flatten-nested-list-iterator" xr:uid="{B60156D2-BAF9-284C-AE97-4823FB4FA8C7}"/>
+    <hyperlink ref="C129" r:id="rId128" tooltip="Monotonic Array" display="https://leetcode.com/problems/monotonic-array" xr:uid="{57FEBB9C-5801-3D4A-A410-EA1898D3F6E5}"/>
+    <hyperlink ref="C130" r:id="rId129" tooltip="Detect Cycles in 2D Grid" display="https://leetcode.com/problems/detect-cycles-in-2d-grid" xr:uid="{C8CD7ECA-3074-7842-9080-5BC093EBB5C7}"/>
+    <hyperlink ref="C131" r:id="rId130" tooltip="Is Graph Bipartite?" display="https://leetcode.com/problems/is-graph-bipartite" xr:uid="{91455DEE-C70E-C547-8803-CD25B9445AE1}"/>
+    <hyperlink ref="C132" r:id="rId131" tooltip="Total Hamming Distance" display="https://leetcode.com/problems/total-hamming-distance" xr:uid="{437E434E-413D-164B-8C79-D5EF6B827BAD}"/>
+    <hyperlink ref="C133" r:id="rId132" tooltip="Binary Tree Longest Consecutive Sequence" display="https://leetcode.com/problems/binary-tree-longest-consecutive-sequence" xr:uid="{5BCD9F4D-8489-7840-B0EA-43190F8C0A93}"/>
+    <hyperlink ref="C134" r:id="rId133" tooltip="Design Tic-Tac-Toe" display="https://leetcode.com/problems/design-tic-tac-toe" xr:uid="{020E801B-019D-FA44-9A0A-5179388B6467}"/>
+    <hyperlink ref="C135" r:id="rId134" tooltip="Multiply Strings" display="https://leetcode.com/problems/multiply-strings" xr:uid="{A7517DE6-2962-1140-A84F-87CF3582D9D9}"/>
+    <hyperlink ref="C136" r:id="rId135" tooltip="Diagonal Traverse II" display="https://leetcode.com/problems/diagonal-traverse-ii" xr:uid="{2C27FB88-D39C-9447-949E-C72CE9766481}"/>
+    <hyperlink ref="C137" r:id="rId136" tooltip="Strings Differ by One Character" display="https://leetcode.com/problems/strings-differ-by-one-character" xr:uid="{DA87BB45-EFDC-8648-B095-38C7970DD34F}"/>
+    <hyperlink ref="C138" r:id="rId137" tooltip="Next Greater Element III" display="https://leetcode.com/problems/next-greater-element-iii" xr:uid="{99CA2706-C240-A746-BF46-16B56918E0F8}"/>
+    <hyperlink ref="C139" r:id="rId138" tooltip="Longest Increasing Path in a Matrix" display="https://leetcode.com/problems/longest-increasing-path-in-a-matrix" xr:uid="{BE5EA2FB-7E00-4548-82B3-9A00C365C445}"/>
+    <hyperlink ref="C140" r:id="rId139" tooltip="Number of Visible People in a Queue" display="https://leetcode.com/problems/number-of-visible-people-in-a-queue" xr:uid="{01A3E703-035C-4B46-AD18-E86A85B898D0}"/>
+    <hyperlink ref="C141" r:id="rId140" tooltip="Missing Element in Sorted Array" display="https://leetcode.com/problems/missing-element-in-sorted-array" xr:uid="{0C32A286-7D53-F64B-A3EE-4581640EDCED}"/>
+    <hyperlink ref="C142" r:id="rId141" tooltip="Swim in Rising Water" display="https://leetcode.com/problems/swim-in-rising-water" xr:uid="{8B9BBFF0-62DB-684C-9FD0-B0AED1BA25B9}"/>
+    <hyperlink ref="C143" r:id="rId142" tooltip="Lowest Common Ancestor of Deepest Leaves" display="https://leetcode.com/problems/lowest-common-ancestor-of-deepest-leaves" xr:uid="{D9BF138A-55A7-2644-ADC7-AC2BB621D976}"/>
+    <hyperlink ref="C144" r:id="rId143" tooltip="Kth Smallest Element in a Sorted Matrix" display="https://leetcode.com/problems/kth-smallest-element-in-a-sorted-matrix" xr:uid="{F27B14C3-B839-9A4C-92F6-00AF4D81C625}"/>
+    <hyperlink ref="C145" r:id="rId144" tooltip="My Calendar III" display="https://leetcode.com/problems/my-calendar-iii" xr:uid="{06735A1A-B555-F04C-8D83-0A80CE40FD77}"/>
+    <hyperlink ref="C146" r:id="rId145" tooltip="Number of Distinct Islands" display="https://leetcode.com/problems/number-of-distinct-islands" xr:uid="{01ADD05B-8B8F-5A48-9440-8DFEF81854E4}"/>
+    <hyperlink ref="C147" r:id="rId146" tooltip="Inorder Successor in BST II" display="https://leetcode.com/problems/inorder-successor-in-bst-ii" xr:uid="{74011543-8D2A-CA47-8E6F-1A09A734D190}"/>
+    <hyperlink ref="C148" r:id="rId147" tooltip="Longest Substring with At Most K Distinct Characters" display="https://leetcode.com/problems/longest-substring-with-at-most-k-distinct-characters" xr:uid="{ABDC8D2E-886B-C044-9D75-82A0A9ACADCE}"/>
+    <hyperlink ref="C149" r:id="rId148" tooltip="Next Greater Element II" display="https://leetcode.com/problems/next-greater-element-ii" xr:uid="{29EA76B8-CB9E-4A43-B171-40B283F10871}"/>
+    <hyperlink ref="C150" r:id="rId149" tooltip="Shortest Unsorted Continuous Subarray" display="https://leetcode.com/problems/shortest-unsorted-continuous-subarray" xr:uid="{C9A2B193-52AB-DA46-AE78-46886D6B63DC}"/>
+    <hyperlink ref="C151" r:id="rId150" tooltip="Number of Calls Between Two Persons" display="https://leetcode.com/problems/number-of-calls-between-two-persons" xr:uid="{2FC5F058-933F-E246-8A22-C5856A37C0D7}"/>
+    <hyperlink ref="C152" r:id="rId151" tooltip="Longest Arithmetic Subsequence" display="https://leetcode.com/problems/longest-arithmetic-subsequence" xr:uid="{377AAD20-EC89-6F4C-9D8D-790167E6C68D}"/>
+    <hyperlink ref="C153" r:id="rId152" tooltip="Maximum Nesting Depth of the Parentheses" display="https://leetcode.com/problems/maximum-nesting-depth-of-the-parentheses" xr:uid="{AE064C97-E086-FC44-8981-38D6D4FE026A}"/>
+    <hyperlink ref="C154" r:id="rId153" tooltip="Delete Nodes And Return Forest" display="https://leetcode.com/problems/delete-nodes-and-return-forest" xr:uid="{DD0E6889-EF63-094A-A8B9-F22F0B6A114F}"/>
+    <hyperlink ref="C155" r:id="rId154" tooltip="All Elements in Two Binary Search Trees" display="https://leetcode.com/problems/all-elements-in-two-binary-search-trees" xr:uid="{FF07ECEA-226B-DD44-AC43-E2952C69597A}"/>
+    <hyperlink ref="C156" r:id="rId155" tooltip="Populating Next Right Pointers in Each Node" display="https://leetcode.com/problems/populating-next-right-pointers-in-each-node" xr:uid="{D9289A6D-E058-2741-8062-FFA73F46E9CB}"/>
+    <hyperlink ref="C157" r:id="rId156" tooltip="Sliding Window Maximum" display="https://leetcode.com/problems/sliding-window-maximum" xr:uid="{D9FD6C8D-0744-9840-80ED-58545E3906DC}"/>
+    <hyperlink ref="C158" r:id="rId157" tooltip="Robot Room Cleaner" display="https://leetcode.com/problems/robot-room-cleaner" xr:uid="{749AA046-59CE-E04A-8D94-CC18D7E8A7B2}"/>
+    <hyperlink ref="C159" r:id="rId158" tooltip="Check Completeness of a Binary Tree" display="https://leetcode.com/problems/check-completeness-of-a-binary-tree" xr:uid="{DB1C1BE6-6C5E-0240-9763-34090AFC7F6F}"/>
+    <hyperlink ref="C160" r:id="rId159" tooltip="First Unique Character in a String" display="https://leetcode.com/problems/first-unique-character-in-a-string" xr:uid="{7FA37055-535F-EE4C-810E-BDCBAA50DD7C}"/>
+    <hyperlink ref="C161" r:id="rId160" tooltip="Target Sum" display="https://leetcode.com/problems/target-sum" xr:uid="{FFE8EED2-7A00-BF40-84A2-565F7C22DDE4}"/>
+    <hyperlink ref="C162" r:id="rId161" tooltip="Daily Temperatures" display="https://leetcode.com/problems/daily-temperatures" xr:uid="{D3298545-174B-E24E-AE58-CFEDE32D3420}"/>
+    <hyperlink ref="C163" r:id="rId162" tooltip="Generate Parentheses" display="https://leetcode.com/problems/generate-parentheses" xr:uid="{DC19AEEA-14F1-A94A-9AED-F09A206B74E6}"/>
+    <hyperlink ref="C164" r:id="rId163" tooltip="Bus Routes" display="https://leetcode.com/problems/bus-routes" xr:uid="{EA1554EA-A68C-3B44-A53D-477F5BC5F25C}"/>
+    <hyperlink ref="C165" r:id="rId164" tooltip="Minimum Insertions to Balance a Parentheses String" display="https://leetcode.com/problems/minimum-insertions-to-balance-a-parentheses-string" xr:uid="{5B7E4A4D-E421-8B44-A530-C11A3E153B59}"/>
+    <hyperlink ref="C166" r:id="rId165" tooltip="Regular Expression Matching" display="https://leetcode.com/problems/regular-expression-matching" xr:uid="{415E76D9-4812-D94C-9926-5FAB5630B2B3}"/>
+    <hyperlink ref="C167" r:id="rId166" tooltip="Egg Drop With 2 Eggs and N Floors" display="https://leetcode.com/problems/egg-drop-with-2-eggs-and-n-floors" xr:uid="{5BF824A1-4135-184C-B367-7084F6CFC703}"/>
+    <hyperlink ref="C168" r:id="rId167" tooltip="Read N Characters Given Read4" display="https://leetcode.com/problems/read-n-characters-given-read4" xr:uid="{AD14C2CD-7F8C-B14F-AC1F-D3E50C61C550}"/>
+    <hyperlink ref="C169" r:id="rId168" tooltip="Median of Two Sorted Arrays" display="https://leetcode.com/problems/median-of-two-sorted-arrays" xr:uid="{C98AA8ED-901C-E340-AB56-47DEF0D8DB09}"/>
+    <hyperlink ref="C170" r:id="rId169" tooltip="Number of Ways to Stay in the Same Place After Some Steps" display="https://leetcode.com/problems/number-of-ways-to-stay-in-the-same-place-after-some-steps" xr:uid="{7B2A0CD3-0E45-7D4A-A338-3647E5FD1003}"/>
+    <hyperlink ref="C171" r:id="rId170" tooltip="Minimum Area Rectangle" display="https://leetcode.com/problems/minimum-area-rectangle" xr:uid="{6E1018C2-1B07-D74D-9C78-87BAFCD26B2C}"/>
+    <hyperlink ref="C172" r:id="rId171" tooltip="Island Perimeter" display="https://leetcode.com/problems/island-perimeter" xr:uid="{7B9DE127-2F79-1A40-8A7E-E12F71D61BB7}"/>
+    <hyperlink ref="C173" r:id="rId172" tooltip="Path Sum II" display="https://leetcode.com/problems/path-sum-ii" xr:uid="{ABB2B600-BB56-1B45-A85E-E8C08D0DBE7A}"/>
+    <hyperlink ref="C174" r:id="rId173" tooltip="Partition Equal Subset Sum" display="https://leetcode.com/problems/partition-equal-subset-sum" xr:uid="{0126BBB9-D965-FF4E-B0DC-E2D340492828}"/>
+    <hyperlink ref="C175" r:id="rId174" tooltip="Intersection of Three Sorted Arrays" display="https://leetcode.com/problems/intersection-of-three-sorted-arrays" xr:uid="{3FDD2B18-CBE7-AF45-8975-C819CECB465C}"/>
+    <hyperlink ref="C176" r:id="rId175" tooltip="Backspace String Compare" display="https://leetcode.com/problems/backspace-string-compare" xr:uid="{9EDA1D29-9A07-CE47-AFF8-A4B4613A077A}"/>
+    <hyperlink ref="E28" r:id="rId176" xr:uid="{23C74F4B-3815-354C-931B-62E0C54B2E27}"/>
+    <hyperlink ref="C177" r:id="rId177" display="https://leetcode.com/problems/find-winner-on-a-tic-tac-toe-game" xr:uid="{1080C8A9-208B-7047-93F1-4CB7969B37EB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/company_tags/Facebook Leetcode High Freq.xlsx
+++ b/company_tags/Facebook Leetcode High Freq.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yifanfei/Desktop/Learning/LCEveryday/company_tags/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492AFD7F-5299-DB45-9D78-B48DF8046966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38B1EAE-2BE8-EF43-8810-3CFBE24D4CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37000" yWindow="3100" windowWidth="28040" windowHeight="17440" xr2:uid="{D3FF114E-0F42-894E-BDDD-DD46A60F80A2}"/>
+    <workbookView xWindow="35480" yWindow="1820" windowWidth="35080" windowHeight="19780" xr2:uid="{D3FF114E-0F42-894E-BDDD-DD46A60F80A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,20 +37,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="438">
   <si>
     <t>Minimum Remove to Make Valid Parentheses</t>
   </si>
   <si>
-    <t>Medium</t>
-  </si>
-  <si>
     <t>Valid Palindrome II</t>
   </si>
   <si>
-    <t>Easy</t>
-  </si>
-  <si>
     <t>Buildings With an Ocean View</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
   </si>
   <si>
     <t>Making A Large Island</t>
-  </si>
-  <si>
-    <t>Hard</t>
   </si>
   <si>
     <t>Subarray Sum Equals K</t>
@@ -717,9 +708,6 @@
     <t>Shortest Unsorted Continuous Subarray</t>
   </si>
   <si>
-    <t>Number of Calls Between Two Persons</t>
-  </si>
-  <si>
     <t>Longest Arithmetic Subsequence</t>
   </si>
   <si>
@@ -1014,10 +1002,6 @@
     </r>
   </si>
   <si>
-    <t>stack = [] # pair of (ch, cnt)
-if stack[-1][1] == k: stack.pop()</t>
-  </si>
-  <si>
     <t>O(32n)/O(1), bitmask, loop from 1 to 32, zero * one</t>
   </si>
   <si>
@@ -1220,9 +1204,6 @@
   <si>
     <t>AC, 3 steps, do it again
 find() should return group id</t>
-  </si>
-  <si>
-    <t>dp O(n^2) is not optimal? Manacher's Algorithm O(n)?</t>
   </si>
   <si>
     <t>AC, trie</t>
@@ -1605,12 +1586,616 @@
 corner cases could be len(hq) = 1/0
 when len=1, check cnt &lt; -1</t>
   </si>
+  <si>
+    <t>DP, dfs(i, j) returns how many delete need</t>
+  </si>
+  <si>
+    <t>AC, level BFS</t>
+  </si>
+  <si>
+    <t>return int(sqrt(n))
+just count the square numbers.(on and off odd times, init as off, so end as on)</t>
+  </si>
+  <si>
+    <t>dfs+memo, O(mn)/O(mn)
+length = max(length, 1 + dfs(nx, ny))</t>
+  </si>
+  <si>
+    <t>DFS, dic[node] = copyNode</t>
+  </si>
+  <si>
+    <t>self.dic = {} # val: index, swap last item with val</t>
+  </si>
+  <si>
+    <t>case1: in between, case2: on 2 ends, case3: uni</t>
+  </si>
+  <si>
+    <t>prefix sum + seen set under loop j
+split by j, then find ii and store cands in set
+then loop k parallel, check if in seen set</t>
+  </si>
+  <si>
+    <t>minheap, O(klogk) / O(k)</t>
+  </si>
+  <si>
+    <t>dfs(node, depth) return node, depth, compare left depth and right</t>
+  </si>
+  <si>
+    <t>dic[node] = copyNode, copyNode.neis = copyChild</t>
+  </si>
+  <si>
+    <t>top down preorder!! Return nothing! 
+If see leaf, self.res += cursum</t>
+  </si>
+  <si>
+    <t>AC, isalnum(), not isalpha()</t>
+  </si>
+  <si>
+    <t>if len(presum) == (n+1), return idx-1</t>
+  </si>
+  <si>
+    <t>Do it again. Last = {a:i} record rightmost index of num a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do it again </t>
+  </si>
+  <si>
+    <t>&gt;, &gt;= ?</t>
+  </si>
+  <si>
+    <t>if flowers[i-1] == flowers[i] == flowers[i+1] == 0:
+set middle as 1</t>
+  </si>
+  <si>
+    <r>
+      <t>return node</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, j</t>
+    </r>
+  </si>
+  <si>
+    <t>for i in range(pos, n), i&gt;pos and s[pos]=0, leading 0
+if pos == 0: dfs(i+1, …)</t>
+  </si>
+  <si>
+    <t>write a function formatRange(l, r)</t>
+  </si>
+  <si>
+    <t>don’t use while, use if, else</t>
+  </si>
+  <si>
+    <r>
+      <t>stack = [] # pair of</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> (ch, cnt)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+if stack[-1][1] == k: stack.pop()</t>
+    </r>
+  </si>
+  <si>
+    <t>AC, marked grid[x][y] = 0 as seen</t>
+  </si>
+  <si>
+    <t>AC, while j &lt; n and s[j] == ch</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">case1: set mins to next smallest
+case2; set hrs to next small, set </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>mins to cand[0]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+case3: set to cand[0] : cand[0]</t>
+    </r>
+  </si>
+  <si>
+    <t>AC, dfs(I, j) memo, return True or false
+then scan all substring again with O(n^2)</t>
+  </si>
+  <si>
+    <t>dp O(n^2) is not optimal maybe but enough !!</t>
+  </si>
+  <si>
+    <t>AC, dfs + memo, O(t⋅n) t is sum of array</t>
+  </si>
+  <si>
+    <r>
+      <t>AC, while fast</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.next</t>
+    </r>
+  </si>
+  <si>
+    <t>AC, color simulation, O(n)/O(n)</t>
+  </si>
+  <si>
+    <t>j in the outerloop, I,k search with seen</t>
+  </si>
+  <si>
+    <t>slow and fast, check match, jump cnt</t>
+  </si>
+  <si>
+    <t>modify encoded not tmp var freq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            if (x, y) in seen:
+                return True
+            seen.add((x, y))</t>
+  </si>
+  <si>
+    <t>AC with sweep line, O(nlogn) for each book, or O(n) insort</t>
+  </si>
+  <si>
+    <t>dfs(s, pos, left, right) + check(s)</t>
+  </si>
+  <si>
+    <t>BFS, check from longest, check()</t>
+  </si>
+  <si>
+    <t>AC, BFS O(n 2^n)</t>
+  </si>
+  <si>
+    <t>get a template, recursion on ()</t>
+  </si>
+  <si>
+    <t>AC, s+'+' to deal with last num</t>
+  </si>
+  <si>
+    <t>Ignore, O(n)/O(n) is the best!!</t>
+  </si>
+  <si>
+    <t>AC, inorder + deque</t>
+  </si>
+  <si>
+    <t>AC, O(m+n)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">do it again </t>
+  </si>
+  <si>
+    <t>AC, O(depth) aka O(logn)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC, store gates into BFS deque </t>
+  </si>
+  <si>
+    <t>i += 1 in partition!!!</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AC, while zeros </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> k</t>
+    </r>
+  </si>
+  <si>
+    <t>template, recursion return sum(stack), I + 1</t>
+  </si>
+  <si>
+    <t>AC, but do it again</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">while i &gt;= 0 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> j &gt;= 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>AC, small typo, indegree[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>nxt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>] -= 1</t>
+    </r>
+  </si>
+  <si>
+    <t>Do it again, '(' twice</t>
+  </si>
+  <si>
+    <t>AC 
+P[i] = P[j] - P[i+1] = P[k] - P[j+1] = P[-1] - P[k+1]</t>
+  </si>
+  <si>
+    <t>Dijkstra, seen set 4 states (sx, sy, bx, by)</t>
+  </si>
+  <si>
+    <t>Digits (one of ["0", "1", "2", "3", "4", "5", "6", "7", "8", "9"]
+          - seenDigit, at least once
+        A sign ("+" or "-")
+          - first char or after e, e.x. -6e-7
+        An exponent ("e" or "E")
+          - &lt;= 1 occur, seenExp
+        A dot (".")
+          - &lt;= 1 occur, seenDot
+          - cannot be after exp</t>
+  </si>
+  <si>
+    <t>AC, but be careful of overflow
+mins &lt; '60' &amp; hrs &lt; '24'</t>
+  </si>
+  <si>
+    <t>Do it again</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Do it again, mark </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>seen as -1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(in dfs it's 1 and in bfs it's 0)</t>
+    </r>
+  </si>
+  <si>
+    <t>BF, O(m^2n), use hash to be O(mn)
+rolling hash, base 26, when masked, - base</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">prev = num update </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>out of if</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>reservoir sampling</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> O(n) / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>O(1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, 
+use dict cost space O(n)
+loop all nums and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>only check num == target</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+cnt += 1, choose = randint(1, cnt), if they are the same
+set res = current idx</t>
+    </r>
+  </si>
+  <si>
+    <t>3rd round</t>
+  </si>
+  <si>
+    <t>4th round</t>
+  </si>
+  <si>
+    <t>5th round</t>
+  </si>
+  <si>
+    <t>BFS O(n)/O(n) no sorting, dic[y]=list
+miny, maxy = min(miny, y), max(maxy, y)</t>
+  </si>
+  <si>
+    <t>AC, do it again</t>
+  </si>
+  <si>
+    <t>if dq, popleft, i++, else, read4 with buf4, dq.append</t>
+  </si>
+  <si>
+    <t>AC with template calc(i+1)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AC, r = len(nums) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>- 1</t>
+    </r>
+  </si>
+  <si>
+    <t>AC, cap 0!</t>
+  </si>
+  <si>
+    <t>do it again. Encode, check Null as '#'</t>
+  </si>
+  <si>
+    <t>AC, if equal, l should not +1</t>
+  </si>
+  <si>
+    <t>Maked as visited by grid[nx][ny] - 1
+first cnt bfs, all empty become -1
+2nd cnt bfs, all become -2. then -3 …</t>
+  </si>
+  <si>
+    <t>res = max(res, 1 + dfs(nx, ny))
+return at least 1</t>
+  </si>
+  <si>
+    <t>dfs(x, y, path), DFS will always visit the cells in the same relative order, O(m^2n^2 )</t>
+  </si>
+  <si>
+    <t>AC, but do it again, base case is leaf node</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mono-dec-deque
+if dq[0] == i - k: # i - k does not belong to current window
+                dq.popleft()
+            if i &gt;= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>k - 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:
+                res.append(nums[dq[0]])</t>
+    </r>
+  </si>
+  <si>
+    <t>Do it again, dry run test case</t>
+  </si>
+  <si>
+    <t>AC , O(1) space with zeros = ones = 0</t>
+  </si>
+  <si>
+    <t>l, r = dfs(node.left), dfs(node.right)
+self.res = max(self.res, length) return length</t>
+  </si>
+  <si>
+    <t>while I &lt; n, check cnt == 4? buf[i:] = buf4[:cnt]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">multi-times, </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">while </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>j &lt; m, check index overflow</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>AC, but do it again!  Set</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> routes[nxt_bus] = []</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>AC, same as next permutation,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> return res if res &lt;= 2**31 - 1 else -1</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="8">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1629,21 +2214,6 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="PingFang SC"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="PingFang SC"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
       <name val="PingFang SC"/>
       <family val="2"/>
       <charset val="134"/>
@@ -1670,6 +2240,11 @@
       <name val="PingFang SC"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1701,30 +2276,36 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2037,1607 +2618,1961 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99E920BA-5A90-344E-AEA7-44B85D85078E}">
-  <dimension ref="A1:I177"/>
+  <dimension ref="A1:M176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="B130" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="E139" sqref="E139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
   <cols>
     <col min="3" max="3" width="47" customWidth="1"/>
     <col min="4" max="4" width="16.5" customWidth="1"/>
-    <col min="5" max="5" width="53.33203125" customWidth="1"/>
-    <col min="6" max="6" width="45.33203125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="39.5" customWidth="1"/>
-    <col min="8" max="8" width="23.1640625" customWidth="1"/>
-    <col min="9" max="9" width="23" customWidth="1"/>
+    <col min="5" max="5" width="57.5" customWidth="1"/>
+    <col min="6" max="6" width="48" style="4" customWidth="1"/>
+    <col min="7" max="7" width="39.5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="34" style="4" customWidth="1"/>
+    <col min="9" max="9" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16">
+    <row r="1" spans="1:13" ht="17">
       <c r="B1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F1" t="s">
-        <v>284</v>
-      </c>
-      <c r="G1">
-        <v>3</v>
-      </c>
-      <c r="H1">
-        <v>4</v>
-      </c>
-      <c r="I1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="92">
+        <v>131</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="69">
       <c r="B2" s="1">
         <v>1249</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3">
         <v>0.65</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>255</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="J2" s="10">
+        <v>44494</v>
+      </c>
+      <c r="K2" s="11">
+        <v>91</v>
+      </c>
+      <c r="L2">
+        <v>176</v>
+      </c>
+      <c r="M2" s="12">
+        <f>K2/L2</f>
+        <v>0.51704545454545459</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="23">
       <c r="A3" s="1"/>
       <c r="B3" s="1">
         <v>680</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>2</v>
+      <c r="C3" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="D3" s="3">
         <v>0.378</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>104</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="J3" s="10">
+        <v>44495</v>
+      </c>
+      <c r="K3" s="11">
+        <v>105</v>
+      </c>
+      <c r="L3">
+        <v>176</v>
+      </c>
+      <c r="M3" s="12">
+        <f t="shared" ref="M3:M9" si="0">K3/L3</f>
+        <v>0.59659090909090906</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="23">
       <c r="A4" s="1"/>
       <c r="B4" s="1">
         <v>1762</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>4</v>
+      <c r="C4" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="D4" s="3">
         <v>0.81200000000000006</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>108</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="J4" s="10">
+        <v>44496</v>
+      </c>
+      <c r="K4" s="11">
+        <v>117</v>
+      </c>
+      <c r="L4">
+        <v>176</v>
+      </c>
+      <c r="M4" s="12">
+        <f t="shared" si="0"/>
+        <v>0.66477272727272729</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="23">
       <c r="A5" s="1"/>
       <c r="B5" s="1">
         <v>1570</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>5</v>
+      <c r="C5" s="7" t="s">
+        <v>3</v>
       </c>
       <c r="D5" s="3">
         <v>0.90800000000000003</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="46">
+        <v>125</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="J5" s="10">
+        <v>44497</v>
+      </c>
+      <c r="K5" s="11">
+        <v>122</v>
+      </c>
+      <c r="L5">
+        <v>176</v>
+      </c>
+      <c r="M5" s="12">
+        <f t="shared" si="0"/>
+        <v>0.69318181818181823</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="46">
       <c r="A6" s="1"/>
       <c r="B6" s="1">
         <v>953</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>6</v>
+      <c r="C6" s="7" t="s">
+        <v>4</v>
       </c>
       <c r="D6" s="3">
         <v>0.52100000000000002</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="E6" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="J6" s="10">
+        <v>44498</v>
+      </c>
+      <c r="K6" s="11"/>
+      <c r="L6">
+        <v>176</v>
+      </c>
+      <c r="M6" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="23">
       <c r="A7" s="1"/>
       <c r="B7" s="1">
         <v>426</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>7</v>
+      <c r="C7" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="D7" s="3">
         <v>0.63200000000000001</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="138">
+        <v>272</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="J7" s="10">
+        <v>44499</v>
+      </c>
+      <c r="K7" s="11"/>
+      <c r="L7">
+        <v>176</v>
+      </c>
+      <c r="M7" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="138">
       <c r="A8" s="1"/>
       <c r="B8" s="1">
         <v>938</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>8</v>
+      <c r="C8" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="D8" s="3">
         <v>0.84</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="E8" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="J8" s="10">
+        <v>44500</v>
+      </c>
+      <c r="K8" s="11"/>
+      <c r="L8">
+        <v>176</v>
+      </c>
+      <c r="M8" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="23">
       <c r="A9" s="1"/>
       <c r="B9" s="1">
         <v>973</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>9</v>
+      <c r="C9" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="D9" s="3">
         <v>0.65600000000000003</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="46">
+        <v>245</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>398</v>
+      </c>
+      <c r="J9" s="10">
+        <v>44501</v>
+      </c>
+      <c r="K9" s="11"/>
+      <c r="L9">
+        <v>176</v>
+      </c>
+      <c r="M9" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="46">
       <c r="A10" s="1"/>
       <c r="B10" s="1">
         <v>1650</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>10</v>
+      <c r="C10" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="D10" s="3">
         <v>0.77300000000000002</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="92">
+      <c r="E10" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="92">
       <c r="A11" s="1"/>
       <c r="B11" s="1">
         <v>827</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>11</v>
+      <c r="C11" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="D11" s="3">
         <v>0.442</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="E11" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="23">
       <c r="A12" s="1"/>
       <c r="B12" s="1">
         <v>560</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>13</v>
+      <c r="C12" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="D12" s="3">
         <v>0.437</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>106</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="23">
       <c r="A13" s="1"/>
       <c r="B13" s="1">
         <v>415</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>14</v>
+      <c r="C13" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="D13" s="3">
         <v>0.50600000000000001</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="92">
+        <v>107</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="92">
       <c r="A14" s="1"/>
       <c r="B14" s="1">
         <v>921</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>15</v>
+      <c r="C14" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="D14" s="3">
         <v>0.76800000000000002</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="E14" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="23">
       <c r="A15" s="1"/>
       <c r="B15" s="1">
         <v>199</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>16</v>
+      <c r="C15" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="D15" s="3">
         <v>0.58099999999999996</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>117</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="23">
       <c r="A16" s="1"/>
       <c r="B16" s="1">
         <v>301</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D16" s="3">
         <v>0.45800000000000002</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>340</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="23">
       <c r="A17" s="1"/>
       <c r="B17" s="1">
         <v>1428</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>18</v>
+      <c r="C17" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="D17" s="3">
         <v>0.51400000000000001</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="46">
+        <v>263</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="46">
       <c r="A18" s="1"/>
       <c r="B18" s="1">
         <v>215</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>19</v>
+      <c r="C18" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="D18" s="3">
         <v>0.61199999999999999</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="69">
+      <c r="E18" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="46">
       <c r="A19" s="1"/>
       <c r="B19" s="1">
         <v>528</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D19" s="3">
         <v>0.45500000000000002</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="161">
+        <v>141</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="115">
       <c r="A20" s="1"/>
       <c r="B20" s="1">
         <v>236</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>21</v>
+      <c r="C20" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="D20" s="3">
         <v>0.52500000000000002</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>122</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="23">
       <c r="A21" s="1"/>
       <c r="B21" s="1">
         <v>721</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>22</v>
+      <c r="C21" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="D21" s="3">
         <v>0.54</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>130</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="46">
       <c r="A22" s="1"/>
       <c r="B22" s="1">
         <v>314</v>
       </c>
-      <c r="C22" s="9" t="s">
-        <v>23</v>
+      <c r="C22" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D22" s="3">
         <v>0.48899999999999999</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>236</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="23">
       <c r="A23" s="1"/>
       <c r="B23" s="1">
         <v>227</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D23" s="3">
         <v>0.39900000000000002</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="69">
+        <v>237</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="69">
       <c r="A24" s="1"/>
       <c r="B24" s="1">
         <v>670</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D24" s="3">
         <v>0.46300000000000002</v>
       </c>
-      <c r="E24" s="6" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="E24" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="23">
       <c r="A25" s="1"/>
       <c r="B25" s="1">
         <v>636</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D25" s="3">
         <v>0.57599999999999996</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="46">
+        <v>264</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="46">
       <c r="A26" s="1"/>
       <c r="B26" s="1">
         <v>523</v>
       </c>
-      <c r="C26" s="9" t="s">
-        <v>27</v>
+      <c r="C26" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="D26" s="3">
         <v>0.26</v>
       </c>
-      <c r="E26" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="23">
+      <c r="E26" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="23">
       <c r="A27" s="1"/>
       <c r="B27" s="1">
         <v>140</v>
       </c>
-      <c r="C27" s="9" t="s">
-        <v>28</v>
+      <c r="C27" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="D27" s="3">
         <v>0.38900000000000001</v>
       </c>
-      <c r="E27" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="E27" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="23">
       <c r="A28" s="1"/>
       <c r="B28" s="1">
         <v>31</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D28" s="3">
         <v>0.34699999999999998</v>
       </c>
-      <c r="E28" s="11" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="E28" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="23">
       <c r="A29" s="1"/>
       <c r="B29" s="1">
         <v>249</v>
       </c>
-      <c r="C29" s="9" t="s">
-        <v>30</v>
+      <c r="C29" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="D29" s="3">
         <v>0.60499999999999998</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>127</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="23">
       <c r="A30" s="1"/>
       <c r="B30" s="1">
         <v>238</v>
       </c>
-      <c r="C30" s="9" t="s">
-        <v>31</v>
+      <c r="C30" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="D30" s="3">
         <v>0.625</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>128</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="23">
       <c r="A31" s="1"/>
       <c r="B31" s="1">
         <v>1047</v>
       </c>
-      <c r="C31" s="9" t="s">
-        <v>32</v>
+      <c r="C31" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="D31" s="3">
         <v>0.71199999999999997</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>105</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="299">
       <c r="A32" s="1"/>
       <c r="B32" s="1">
         <v>65</v>
       </c>
-      <c r="C32" s="7" t="s">
-        <v>33</v>
+      <c r="C32" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="D32" s="3">
         <v>0.17199999999999999</v>
       </c>
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="E32" s="4" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1"/>
       <c r="B33" s="1">
         <v>1263</v>
       </c>
-      <c r="C33" s="7" t="s">
-        <v>34</v>
+      <c r="C33" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="D33" s="3">
         <v>0.47399999999999998</v>
       </c>
-      <c r="E33" s="3"/>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="E33" s="3" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="23">
       <c r="A34" s="1"/>
       <c r="B34" s="1">
         <v>71</v>
       </c>
-      <c r="C34" s="9" t="s">
-        <v>35</v>
+      <c r="C34" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="D34" s="3">
         <v>0.36199999999999999</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>105</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="138">
       <c r="A35" s="1"/>
       <c r="B35" s="1">
         <v>398</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D35" s="3">
         <v>0.61199999999999999</v>
       </c>
-      <c r="E35" s="3"/>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="E35" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="23">
       <c r="A36" s="1"/>
       <c r="B36" s="1">
         <v>42</v>
       </c>
-      <c r="C36" s="9" t="s">
-        <v>37</v>
+      <c r="C36" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="D36" s="3">
         <v>0.54</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>247</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="46">
       <c r="A37" s="1"/>
       <c r="B37" s="1">
         <v>408</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>38</v>
+      <c r="C37" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="D37" s="3">
         <v>0.32400000000000001</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>119</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="23">
       <c r="A38" s="1"/>
       <c r="B38" s="1">
         <v>173</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>39</v>
+      <c r="C38" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="D38" s="3">
         <v>0.63100000000000001</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="46">
+        <v>257</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="46">
       <c r="A39" s="1"/>
       <c r="B39" s="1">
         <v>67</v>
       </c>
-      <c r="C39" s="9" t="s">
-        <v>40</v>
+      <c r="C39" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="D39" s="3">
         <v>0.48799999999999999</v>
       </c>
-      <c r="E39" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="E39" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1"/>
       <c r="B40" s="1">
         <v>347</v>
       </c>
-      <c r="C40" s="9" t="s">
-        <v>41</v>
+      <c r="C40" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="D40" s="3">
         <v>0.63600000000000001</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="69">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="69">
       <c r="A41" s="1"/>
       <c r="B41" s="1">
         <v>1382</v>
       </c>
-      <c r="C41" s="9" t="s">
-        <v>42</v>
+      <c r="C41" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="D41" s="3">
         <v>0.78500000000000003</v>
       </c>
-      <c r="E41" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="G41" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="E41" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1"/>
       <c r="B42" s="1">
         <v>766</v>
       </c>
-      <c r="C42" s="9" t="s">
-        <v>43</v>
+      <c r="C42" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="D42" s="3">
         <v>0.66600000000000004</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="23">
       <c r="A43" s="1"/>
       <c r="B43" s="1">
         <v>543</v>
       </c>
-      <c r="C43" s="9" t="s">
-        <v>44</v>
+      <c r="C43" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="D43" s="3">
         <v>0.52200000000000002</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>112</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1"/>
       <c r="B44" s="1">
         <v>56</v>
       </c>
-      <c r="C44" s="9" t="s">
-        <v>45</v>
+      <c r="C44" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="D44" s="3">
         <v>0.43099999999999999</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="46">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="46">
       <c r="A45" s="1"/>
       <c r="B45" s="1">
         <v>139</v>
       </c>
-      <c r="C45" s="9" t="s">
-        <v>46</v>
+      <c r="C45" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="D45" s="3">
         <v>0.432</v>
       </c>
-      <c r="E45" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="E45" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="23">
       <c r="A46" s="1"/>
       <c r="B46" s="1">
         <v>708</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D46" s="3">
         <v>0.33400000000000002</v>
       </c>
-      <c r="E46" s="3"/>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="E46" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="69">
       <c r="A47" s="1"/>
       <c r="B47" s="1">
         <v>317</v>
       </c>
-      <c r="C47" s="7" t="s">
-        <v>48</v>
+      <c r="C47" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="D47" s="3">
         <v>0.437</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>287</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="23">
       <c r="A48" s="1"/>
       <c r="B48" s="1">
         <v>269</v>
       </c>
-      <c r="C48" s="9" t="s">
-        <v>49</v>
+      <c r="C48" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="D48" s="3">
         <v>0.34300000000000003</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="46">
+        <v>110</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="46">
       <c r="A49" s="1"/>
       <c r="B49" s="1">
         <v>124</v>
       </c>
-      <c r="C49" s="9" t="s">
-        <v>50</v>
+      <c r="C49" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="D49" s="3">
         <v>0.36699999999999999</v>
       </c>
-      <c r="E49" s="6" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="E49" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="23">
       <c r="A50" s="1"/>
       <c r="B50" s="1">
         <v>146</v>
       </c>
-      <c r="C50" s="9" t="s">
-        <v>51</v>
+      <c r="C50" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="D50" s="3">
         <v>0.38200000000000001</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="46">
+        <v>142</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="46">
       <c r="A51" s="1"/>
       <c r="B51" s="1">
         <v>987</v>
       </c>
-      <c r="C51" s="9" t="s">
-        <v>52</v>
+      <c r="C51" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="D51" s="3">
         <v>0.39700000000000002</v>
       </c>
-      <c r="E51" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="E51" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1"/>
       <c r="B52" s="1">
         <v>863</v>
       </c>
-      <c r="C52" s="9" t="s">
-        <v>53</v>
+      <c r="C52" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="D52" s="3">
         <v>0.59599999999999997</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="23">
       <c r="A53" s="1"/>
       <c r="B53" s="1">
         <v>1344</v>
       </c>
-      <c r="C53" s="9" t="s">
-        <v>54</v>
+      <c r="C53" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="D53" s="3">
         <v>0.621</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>232</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1"/>
       <c r="B54" s="1">
         <v>339</v>
       </c>
-      <c r="C54" s="9" t="s">
-        <v>55</v>
+      <c r="C54" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="D54" s="3">
         <v>0.78300000000000003</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="46">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="46">
       <c r="A55" s="1"/>
       <c r="B55" s="1">
         <v>791</v>
       </c>
-      <c r="C55" s="9" t="s">
-        <v>56</v>
+      <c r="C55" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="D55" s="3">
         <v>0.67300000000000004</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F55" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>133</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="23">
       <c r="A56" s="1"/>
       <c r="B56" s="1">
         <v>1011</v>
       </c>
-      <c r="C56" s="9" t="s">
-        <v>57</v>
+      <c r="C56" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="D56" s="3">
         <v>0.61599999999999999</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>217</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="23">
       <c r="A57" s="1"/>
       <c r="B57" s="1">
         <v>50</v>
       </c>
-      <c r="C57" s="9" t="s">
-        <v>58</v>
+      <c r="C57" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D57" s="3">
         <v>0.315</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="69">
+        <v>129</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="69">
       <c r="A58" s="1"/>
       <c r="B58" s="1">
         <v>162</v>
       </c>
-      <c r="C58" s="9" t="s">
-        <v>59</v>
+      <c r="C58" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="D58" s="3">
         <v>0.44900000000000001</v>
       </c>
-      <c r="E58" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="E58" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1"/>
       <c r="B59" s="1">
         <v>29</v>
       </c>
-      <c r="C59" s="7" t="s">
-        <v>60</v>
+      <c r="C59" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="D59" s="3">
         <v>0.17</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="23">
       <c r="A60" s="1"/>
       <c r="B60" s="1">
         <v>270</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D60" s="3">
         <v>0.52200000000000002</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="69">
+        <v>121</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="69">
       <c r="A61" s="1"/>
       <c r="B61" s="1">
         <v>1004</v>
       </c>
-      <c r="C61" s="9" t="s">
-        <v>62</v>
+      <c r="C61" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="D61" s="3">
         <v>0.61499999999999999</v>
       </c>
-      <c r="E61" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F61" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="G61" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+      <c r="E61" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="23">
       <c r="A62" s="1"/>
       <c r="B62" s="1">
         <v>125</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D62" s="3">
         <v>0.39800000000000002</v>
       </c>
-      <c r="E62" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="E62" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="23">
       <c r="A63" s="1"/>
       <c r="B63" s="1">
         <v>498</v>
       </c>
-      <c r="C63" s="9" t="s">
-        <v>64</v>
+      <c r="C63" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="D63" s="3">
         <v>0.53100000000000003</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="46">
+        <v>116</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="46">
       <c r="A64" s="1"/>
       <c r="B64" s="1">
         <v>88</v>
       </c>
-      <c r="C64" s="9" t="s">
-        <v>65</v>
+      <c r="C64" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="D64" s="3">
         <v>0.42099999999999999</v>
       </c>
-      <c r="E64" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+      <c r="E64" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1"/>
       <c r="B65" s="1">
         <v>266</v>
       </c>
-      <c r="C65" s="9" t="s">
-        <v>66</v>
+      <c r="C65" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="D65" s="3">
         <v>0.63900000000000001</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="23">
       <c r="A66" s="1"/>
       <c r="B66" s="1">
         <v>536</v>
       </c>
-      <c r="C66" s="7" t="s">
-        <v>67</v>
+      <c r="C66" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="D66" s="3">
         <v>0.54200000000000004</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>308</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="23">
       <c r="A67" s="1"/>
       <c r="B67" s="1">
         <v>986</v>
       </c>
-      <c r="C67" s="9" t="s">
-        <v>68</v>
+      <c r="C67" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="D67" s="3">
         <v>0.69599999999999995</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>311</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="23">
       <c r="A68" s="1"/>
       <c r="B68" s="1">
         <v>76</v>
       </c>
-      <c r="C68" s="9" t="s">
-        <v>69</v>
+      <c r="C68" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="D68" s="3">
         <v>0.378</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="69">
+        <v>259</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="69">
       <c r="A69" s="1"/>
       <c r="B69" s="1">
         <v>1539</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D69" s="3">
         <v>0.54900000000000004</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F69" s="6" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>136</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="46">
       <c r="A70" s="1"/>
       <c r="B70" s="1">
         <v>133</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D70" s="3">
         <v>0.43099999999999999</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>324</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1"/>
       <c r="B71" s="1">
         <v>23</v>
       </c>
-      <c r="C71" s="9" t="s">
-        <v>72</v>
+      <c r="C71" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="D71" s="3">
         <v>0.44800000000000001</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1"/>
       <c r="B72" s="1">
         <v>273</v>
       </c>
-      <c r="C72" s="7" t="s">
-        <v>73</v>
+      <c r="C72" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="D72" s="3">
         <v>0.28999999999999998</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="23">
       <c r="A73" s="1"/>
       <c r="B73" s="1">
         <v>304</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D73" s="3">
         <v>0.45200000000000001</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>303</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="23">
       <c r="A74" s="1"/>
       <c r="B74" s="1">
         <v>977</v>
       </c>
-      <c r="C74" s="9" t="s">
-        <v>75</v>
+      <c r="C74" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="D74" s="3">
         <v>0.71499999999999997</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="69">
+        <v>138</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="69">
       <c r="A75" s="1"/>
       <c r="B75" s="1">
         <v>1891</v>
       </c>
-      <c r="C75" s="9" t="s">
-        <v>76</v>
+      <c r="C75" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="D75" s="3">
         <v>0.501</v>
       </c>
-      <c r="E75" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="46">
+      <c r="E75" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="46">
       <c r="A76" s="1"/>
       <c r="B76" s="1">
         <v>658</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D76" s="3">
         <v>0.437</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="F76" s="6" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="92">
+        <v>250</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="92">
       <c r="A77" s="1"/>
       <c r="B77" s="1">
         <v>129</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D77" s="3">
         <v>0.53600000000000003</v>
       </c>
-      <c r="E77" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="F77" s="6" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+      <c r="E77" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="23">
       <c r="A78" s="1"/>
       <c r="B78" s="1">
         <v>1868</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D78" s="3">
         <v>0.57599999999999996</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>271</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="23">
       <c r="A79" s="1"/>
       <c r="B79" s="1">
         <v>138</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>80</v>
+      <c r="C79" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="D79" s="3">
         <v>0.443</v>
       </c>
-      <c r="E79" s="3"/>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="E79" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1"/>
       <c r="B80" s="1">
         <v>380</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>81</v>
+      <c r="C80" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="D80" s="3">
         <v>0.501</v>
       </c>
-      <c r="E80" s="3"/>
-    </row>
-    <row r="81" spans="1:6">
+      <c r="E80" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="69">
       <c r="A81" s="1"/>
       <c r="B81" s="1">
         <v>605</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D81" s="3">
         <v>0.318</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>139</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1"/>
       <c r="B82" s="1">
         <v>1522</v>
       </c>
-      <c r="C82" s="9" t="s">
-        <v>83</v>
+      <c r="C82" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="D82" s="3">
         <v>0.71199999999999997</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1"/>
       <c r="B83" s="1">
         <v>983</v>
       </c>
-      <c r="C83" s="7" t="s">
-        <v>84</v>
+      <c r="C83" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="D83" s="3">
         <v>0.63300000000000001</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1"/>
       <c r="B84" s="1">
         <v>621</v>
       </c>
-      <c r="C84" s="9" t="s">
-        <v>85</v>
+      <c r="C84" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="D84" s="3">
         <v>0.53600000000000003</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="46">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="46">
       <c r="A85" s="1"/>
       <c r="B85" s="1">
         <v>1209</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D85" s="3">
         <v>0.56200000000000006</v>
       </c>
-      <c r="E85" s="6" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+      <c r="E85" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="23">
       <c r="A86" s="1"/>
       <c r="B86" s="1">
         <v>127</v>
       </c>
-      <c r="C86" s="9" t="s">
-        <v>87</v>
+      <c r="C86" s="7" t="s">
+        <v>84</v>
       </c>
       <c r="D86" s="3">
         <v>0.33600000000000002</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>116</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="23">
       <c r="A87" s="1"/>
       <c r="B87" s="1">
         <v>346</v>
       </c>
-      <c r="C87" s="9" t="s">
-        <v>88</v>
+      <c r="C87" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="D87" s="3">
         <v>0.748</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>140</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="23">
       <c r="A88" s="1"/>
       <c r="B88" s="1">
         <v>296</v>
       </c>
-      <c r="C88" s="9" t="s">
-        <v>89</v>
+      <c r="C88" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="D88" s="3">
         <v>0.59</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>270</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="23">
       <c r="A89" s="1"/>
       <c r="B89" s="1">
         <v>34</v>
       </c>
-      <c r="C89" s="9" t="s">
-        <v>90</v>
+      <c r="C89" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="D89" s="3">
         <v>0.38900000000000001</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>261</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="23">
       <c r="A90" s="1"/>
       <c r="B90" s="1">
         <v>163</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D90" s="3">
         <v>0.29599999999999999</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>241</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="69">
       <c r="A91" s="1"/>
       <c r="B91" s="1">
         <v>282</v>
       </c>
-      <c r="C91" s="7" t="s">
-        <v>92</v>
+      <c r="C91" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="D91" s="3">
         <v>0.38600000000000001</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>268</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="23">
       <c r="A92" s="1"/>
       <c r="B92" s="1">
         <v>8</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D92" s="3">
         <v>0.16</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="69">
+        <v>269</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="69">
       <c r="A93" s="1"/>
       <c r="B93" s="1">
         <v>515</v>
       </c>
-      <c r="C93" s="9" t="s">
-        <v>94</v>
+      <c r="C93" s="7" t="s">
+        <v>91</v>
       </c>
       <c r="D93" s="3">
         <v>0.63500000000000001</v>
       </c>
-      <c r="E93" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="F93" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+      <c r="E93" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="69">
       <c r="A94" s="1"/>
       <c r="B94" s="1">
         <v>319</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>95</v>
+      <c r="C94" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="D94" s="3">
         <v>0.46400000000000002</v>
       </c>
-      <c r="E94" s="3"/>
-    </row>
-    <row r="95" spans="1:6">
+      <c r="E94" s="4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="23">
       <c r="A95" s="1"/>
       <c r="B95" s="1">
         <v>158</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>96</v>
+      <c r="C95" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="D95" s="3">
         <v>0.39500000000000002</v>
       </c>
-      <c r="E95" s="3"/>
-    </row>
-    <row r="96" spans="1:6">
+      <c r="E95" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="23">
       <c r="A96" s="1"/>
       <c r="B96" s="1">
         <v>224</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D96" s="3">
         <v>0.39500000000000002</v>
       </c>
-      <c r="E96" s="3"/>
+      <c r="E96" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="97" spans="1:8" ht="46">
       <c r="A97" s="1"/>
@@ -3645,13 +4580,13 @@
         <v>393</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D97" s="3">
         <v>0.38800000000000001</v>
       </c>
-      <c r="E97" s="6" t="s">
-        <v>267</v>
+      <c r="E97" s="4" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="138">
@@ -3659,14 +4594,14 @@
       <c r="B98" s="1">
         <v>114</v>
       </c>
-      <c r="C98" s="7" t="s">
-        <v>99</v>
+      <c r="C98" s="5" t="s">
+        <v>96</v>
       </c>
       <c r="D98" s="3">
         <v>0.55500000000000005</v>
       </c>
-      <c r="E98" s="6" t="s">
-        <v>322</v>
+      <c r="E98" s="4" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3674,14 +4609,14 @@
       <c r="B99" s="1">
         <v>724</v>
       </c>
-      <c r="C99" s="9" t="s">
-        <v>100</v>
+      <c r="C99" s="7" t="s">
+        <v>97</v>
       </c>
       <c r="D99" s="3">
         <v>0.49</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="46">
@@ -3689,1330 +4624,1154 @@
       <c r="B100" s="1">
         <v>126</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>101</v>
+      <c r="C100" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="D100" s="3">
         <v>0.25700000000000001</v>
       </c>
-      <c r="E100" s="6" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+      <c r="E100" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="69">
       <c r="A101" s="1"/>
       <c r="B101" s="1">
         <v>548</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>102</v>
+      <c r="C101" s="7" t="s">
+        <v>99</v>
       </c>
       <c r="D101" s="3">
         <v>0.49399999999999999</v>
       </c>
-      <c r="E101" s="3"/>
+      <c r="E101" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="102" spans="1:8" ht="46">
       <c r="B102" s="1">
         <v>695</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D102" s="3">
         <v>0.67900000000000005</v>
       </c>
       <c r="E102" t="s">
-        <v>226</v>
-      </c>
-      <c r="F102" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="G102" s="5"/>
-    </row>
-    <row r="103" spans="1:8">
+        <v>222</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="H102" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="23">
       <c r="B103" s="1">
         <v>1161</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D103" s="3">
         <v>0.67100000000000004</v>
       </c>
       <c r="E103" t="s">
-        <v>248</v>
-      </c>
-      <c r="F103" s="3" t="s">
-        <v>325</v>
+        <v>244</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>319</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H103" s="5"/>
-    </row>
-    <row r="104" spans="1:8">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="23">
       <c r="B104" s="1">
         <v>935</v>
       </c>
-      <c r="C104" s="9" t="s">
-        <v>148</v>
+      <c r="C104" s="7" t="s">
+        <v>145</v>
       </c>
       <c r="D104" s="3">
         <v>0.48099999999999998</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="F104" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="G104" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H104" s="5"/>
+        <v>274</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="105" spans="1:8" ht="54">
       <c r="B105" s="1">
         <v>253</v>
       </c>
-      <c r="C105" s="9" t="s">
-        <v>149</v>
+      <c r="C105" s="7" t="s">
+        <v>146</v>
       </c>
       <c r="D105" s="3">
         <v>0.48399999999999999</v>
       </c>
-      <c r="E105" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="G105" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H105" s="5"/>
+      <c r="E105" s="8" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="106" spans="1:8" ht="71">
       <c r="B106" s="1">
         <v>16</v>
       </c>
-      <c r="C106" s="9" t="s">
-        <v>150</v>
+      <c r="C106" s="7" t="s">
+        <v>147</v>
       </c>
       <c r="D106" s="3">
         <v>0.46800000000000003</v>
       </c>
-      <c r="E106" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="F106" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="G106" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="H106" s="5"/>
+      <c r="E106" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="107" spans="1:8" ht="69">
       <c r="B107" s="1">
         <v>19</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D107" s="3">
         <v>0.371</v>
       </c>
-      <c r="E107" s="10" t="s">
-        <v>353</v>
-      </c>
-      <c r="F107" s="6" t="s">
-        <v>354</v>
+      <c r="E107" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>348</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H107" s="5"/>
+        <v>380</v>
+      </c>
     </row>
     <row r="108" spans="1:8" ht="54">
       <c r="B108" s="1">
         <v>39</v>
       </c>
-      <c r="C108" s="9" t="s">
-        <v>152</v>
+      <c r="C108" s="7" t="s">
+        <v>149</v>
       </c>
       <c r="D108" s="3">
         <v>0.623</v>
       </c>
-      <c r="E108" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="G108" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H108" s="5"/>
+      <c r="E108" s="8" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="109" spans="1:8" ht="69">
       <c r="B109" s="1">
         <v>767</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D109" s="3">
         <v>0.51100000000000001</v>
       </c>
-      <c r="E109" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="F109" s="6" t="s">
-        <v>356</v>
+      <c r="E109" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>350</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H109" s="5"/>
+        <v>346</v>
+      </c>
     </row>
     <row r="110" spans="1:8">
       <c r="B110" s="1">
         <v>715</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>154</v>
+      <c r="C110" s="5" t="s">
+        <v>151</v>
       </c>
       <c r="D110" s="3">
         <v>0.42499999999999999</v>
       </c>
-      <c r="G110" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H110" s="5"/>
-    </row>
-    <row r="111" spans="1:8">
+    </row>
+    <row r="111" spans="1:8" ht="23">
       <c r="B111" s="1">
         <v>1091</v>
       </c>
-      <c r="C111" s="9" t="s">
-        <v>155</v>
+      <c r="C111" s="7" t="s">
+        <v>152</v>
       </c>
       <c r="D111" s="3">
         <v>0.41199999999999998</v>
       </c>
-      <c r="E111" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="F111" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="G111" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H111" s="5"/>
+      <c r="E111" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="112" spans="1:8">
       <c r="B112" s="1">
         <v>211</v>
       </c>
-      <c r="C112" s="9" t="s">
-        <v>156</v>
+      <c r="C112" s="7" t="s">
+        <v>153</v>
       </c>
       <c r="D112" s="3">
         <v>0.42399999999999999</v>
       </c>
-      <c r="E112" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="G112" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H112" s="5"/>
+      <c r="E112" s="8" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="113" spans="2:8">
       <c r="B113" s="1">
         <v>78</v>
       </c>
-      <c r="C113" s="9" t="s">
-        <v>157</v>
+      <c r="C113" s="7" t="s">
+        <v>154</v>
       </c>
       <c r="D113" s="3">
         <v>0.68300000000000005</v>
       </c>
       <c r="E113" t="s">
-        <v>225</v>
-      </c>
-      <c r="G113" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H113" s="5"/>
-    </row>
-    <row r="114" spans="2:8">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8" ht="23">
       <c r="B114" s="1">
         <v>286</v>
       </c>
-      <c r="C114" s="9" t="s">
-        <v>158</v>
+      <c r="C114" s="7" t="s">
+        <v>155</v>
       </c>
       <c r="D114" s="3">
         <v>0.57699999999999996</v>
       </c>
       <c r="E114" t="s">
-        <v>281</v>
-      </c>
-      <c r="F114" s="3" t="s">
-        <v>119</v>
+        <v>276</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H114" s="5"/>
-    </row>
-    <row r="115" spans="2:8">
+        <v>397</v>
+      </c>
+      <c r="H114" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="115" spans="2:8" ht="23">
       <c r="B115" s="1">
         <v>1216</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>159</v>
+      <c r="C115" s="7" t="s">
+        <v>156</v>
       </c>
       <c r="D115" s="3">
         <v>0.51300000000000001</v>
       </c>
-      <c r="G115" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H115" s="5"/>
+      <c r="E115" t="s">
+        <v>351</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="116" spans="2:8">
       <c r="B116" s="1">
         <v>824</v>
       </c>
-      <c r="C116" s="9" t="s">
-        <v>160</v>
+      <c r="C116" s="7" t="s">
+        <v>157</v>
       </c>
       <c r="D116" s="3">
         <v>0.67200000000000004</v>
       </c>
       <c r="E116" t="s">
-        <v>280</v>
-      </c>
-      <c r="G116" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H116" s="5"/>
-    </row>
-    <row r="117" spans="2:8">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="117" spans="2:8" ht="23">
       <c r="B117" s="1">
         <v>932</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D117" s="3">
         <v>0.63700000000000001</v>
       </c>
       <c r="E117" t="s">
-        <v>272</v>
-      </c>
-      <c r="F117" s="3" t="s">
-        <v>355</v>
+        <v>267</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>349</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H117" s="5"/>
+        <v>346</v>
+      </c>
     </row>
     <row r="118" spans="2:8">
       <c r="B118" s="1">
         <v>234</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>162</v>
+      <c r="C118" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="D118" s="3">
         <v>0.44400000000000001</v>
       </c>
       <c r="E118" t="s">
-        <v>223</v>
-      </c>
-      <c r="G118" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H118" s="5"/>
-    </row>
-    <row r="119" spans="2:8">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="119" spans="2:8" ht="23">
       <c r="B119" s="1">
         <v>865</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>163</v>
+      <c r="C119" s="5" t="s">
+        <v>160</v>
       </c>
       <c r="D119" s="3">
         <v>0.66400000000000003</v>
       </c>
+      <c r="E119" t="s">
+        <v>360</v>
+      </c>
       <c r="G119" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H119" s="5"/>
-    </row>
-    <row r="120" spans="2:8">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="120" spans="2:8" ht="23">
       <c r="B120" s="1">
         <v>297</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D120" s="3">
         <v>0.52</v>
       </c>
       <c r="E120" t="s">
-        <v>239</v>
+        <v>235</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>423</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H120" s="5"/>
+        <v>346</v>
+      </c>
     </row>
     <row r="121" spans="2:8">
       <c r="B121" s="1">
         <v>637</v>
       </c>
-      <c r="C121" s="9" t="s">
-        <v>165</v>
+      <c r="C121" s="7" t="s">
+        <v>162</v>
       </c>
       <c r="D121" s="3">
         <v>0.67300000000000004</v>
       </c>
       <c r="E121" t="s">
-        <v>119</v>
-      </c>
-      <c r="G121" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H121" s="5"/>
+        <v>116</v>
+      </c>
     </row>
     <row r="122" spans="2:8">
       <c r="B122" s="1">
         <v>616</v>
       </c>
-      <c r="C122" s="7" t="s">
-        <v>166</v>
+      <c r="C122" s="5" t="s">
+        <v>163</v>
       </c>
       <c r="D122" s="3">
         <v>0.46100000000000002</v>
       </c>
-      <c r="G122" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H122" s="5"/>
-    </row>
-    <row r="123" spans="2:8">
+    </row>
+    <row r="123" spans="2:8" ht="46">
       <c r="B123" s="1">
         <v>443</v>
       </c>
-      <c r="C123" s="9" t="s">
-        <v>167</v>
+      <c r="C123" s="7" t="s">
+        <v>164</v>
       </c>
       <c r="D123" s="3">
         <v>0.46100000000000002</v>
       </c>
       <c r="E123" t="s">
-        <v>229</v>
-      </c>
-      <c r="F123" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="G123" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="H123" s="5"/>
-    </row>
-    <row r="124" spans="2:8">
+        <v>225</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H123" s="4" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8" ht="92">
       <c r="B124" s="1">
         <v>681</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D124" s="3">
         <v>0.46200000000000002</v>
       </c>
       <c r="E124" t="s">
-        <v>326</v>
+        <v>320</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>376</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H124" s="5"/>
-    </row>
-    <row r="125" spans="2:8">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="125" spans="2:8" ht="46">
       <c r="B125" s="1">
         <v>934</v>
       </c>
-      <c r="C125" s="7" t="s">
-        <v>169</v>
+      <c r="C125" s="5" t="s">
+        <v>166</v>
       </c>
       <c r="D125" s="3">
         <v>0.51600000000000001</v>
       </c>
       <c r="E125" t="s">
-        <v>301</v>
+        <v>296</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>410</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H125" s="5"/>
-    </row>
-    <row r="126" spans="2:8">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="126" spans="2:8" ht="46">
       <c r="B126" s="1">
         <v>647</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D126" s="3">
         <v>0.63600000000000001</v>
       </c>
       <c r="E126" t="s">
-        <v>305</v>
-      </c>
-      <c r="G126" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H126" s="5"/>
+        <v>378</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="127" spans="2:8">
       <c r="B127" s="1">
         <v>691</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D127" s="3">
         <v>0.46400000000000002</v>
       </c>
-      <c r="G127" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H127" s="5"/>
     </row>
     <row r="128" spans="2:8">
       <c r="B128" s="1">
         <v>341</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D128" s="3">
         <v>0.57299999999999995</v>
       </c>
-      <c r="G128" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H128" s="5"/>
-    </row>
-    <row r="129" spans="2:8">
+    </row>
+    <row r="129" spans="2:7">
       <c r="B129" s="1">
         <v>896</v>
       </c>
-      <c r="C129" s="9" t="s">
-        <v>173</v>
+      <c r="C129" s="7" t="s">
+        <v>170</v>
       </c>
       <c r="D129" s="3">
         <v>0.58099999999999996</v>
       </c>
       <c r="E129" t="s">
-        <v>222</v>
-      </c>
-      <c r="G129" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H129" s="5"/>
-    </row>
-    <row r="130" spans="2:8">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="130" spans="2:7" ht="69">
       <c r="B130" s="1">
         <v>1559</v>
       </c>
-      <c r="C130" s="7" t="s">
-        <v>174</v>
+      <c r="C130" s="5" t="s">
+        <v>171</v>
       </c>
       <c r="D130" s="3">
         <v>0.46600000000000003</v>
       </c>
       <c r="E130" t="s">
-        <v>258</v>
-      </c>
-      <c r="G130" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H130" s="5"/>
-    </row>
-    <row r="131" spans="2:8" ht="37">
+        <v>253</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="131" spans="2:7" ht="37">
       <c r="B131" s="1">
         <v>785</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D131" s="3">
         <v>0.495</v>
       </c>
-      <c r="E131" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="G131" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H131" s="5"/>
-    </row>
-    <row r="132" spans="2:8" ht="46">
+      <c r="E131" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="132" spans="2:7" ht="46">
       <c r="B132" s="1">
         <v>477</v>
       </c>
-      <c r="C132" s="9" t="s">
-        <v>176</v>
+      <c r="C132" s="7" t="s">
+        <v>173</v>
       </c>
       <c r="D132" s="3">
         <v>0.51400000000000001</v>
       </c>
       <c r="E132" t="s">
-        <v>256</v>
-      </c>
-      <c r="F132" s="6" t="s">
-        <v>333</v>
+        <v>251</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>327</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H132" s="5"/>
-    </row>
-    <row r="133" spans="2:8" ht="37">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="133" spans="2:7" ht="69">
       <c r="B133" s="1">
         <v>298</v>
       </c>
-      <c r="C133" s="7" t="s">
-        <v>177</v>
+      <c r="C133" s="5" t="s">
+        <v>174</v>
       </c>
       <c r="D133" s="3">
         <v>0.495</v>
       </c>
-      <c r="E133" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="G133" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H133" s="5"/>
-    </row>
-    <row r="134" spans="2:8">
+      <c r="E133" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="134" spans="2:7">
       <c r="B134" s="1">
         <v>348</v>
       </c>
-      <c r="C134" s="9" t="s">
-        <v>178</v>
+      <c r="C134" s="7" t="s">
+        <v>175</v>
       </c>
       <c r="D134" s="3">
         <v>0.56699999999999995</v>
       </c>
       <c r="E134" t="s">
-        <v>237</v>
-      </c>
-      <c r="G134" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H134" s="5"/>
-    </row>
-    <row r="135" spans="2:8">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="135" spans="2:7">
       <c r="B135" s="1">
         <v>43</v>
       </c>
-      <c r="C135" s="7" t="s">
-        <v>179</v>
+      <c r="C135" s="5" t="s">
+        <v>176</v>
       </c>
       <c r="D135" s="3">
         <v>0.36099999999999999</v>
       </c>
-      <c r="E135" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="G135" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H135" s="5"/>
-    </row>
-    <row r="136" spans="2:8">
+      <c r="E135" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="136" spans="2:7">
       <c r="B136" s="1">
         <v>1424</v>
       </c>
-      <c r="C136" s="9" t="s">
-        <v>180</v>
+      <c r="C136" s="7" t="s">
+        <v>177</v>
       </c>
       <c r="D136" s="3">
         <v>0.48099999999999998</v>
       </c>
       <c r="E136" t="s">
-        <v>232</v>
-      </c>
-      <c r="G136" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H136" s="5"/>
-    </row>
-    <row r="137" spans="2:8">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="137" spans="2:7" ht="37">
       <c r="B137" s="1">
         <v>1554</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D137" s="3">
         <v>0.64900000000000002</v>
       </c>
-      <c r="G137" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H137" s="5"/>
-    </row>
-    <row r="138" spans="2:8">
+      <c r="E137" s="8" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="138" spans="2:7">
       <c r="B138" s="1">
         <v>556</v>
       </c>
-      <c r="C138" s="2" t="s">
-        <v>182</v>
+      <c r="C138" s="7" t="s">
+        <v>179</v>
       </c>
       <c r="D138" s="3">
         <v>0.33400000000000002</v>
       </c>
-      <c r="G138" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H138" s="5"/>
-    </row>
-    <row r="139" spans="2:8">
+      <c r="E138" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="139" spans="2:7" ht="46">
       <c r="B139" s="1">
         <v>329</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>183</v>
+      <c r="C139" s="5" t="s">
+        <v>180</v>
       </c>
       <c r="D139" s="3">
         <v>0.48099999999999998</v>
       </c>
-      <c r="G139" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H139" s="5"/>
-    </row>
-    <row r="140" spans="2:8">
+      <c r="E139" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="F139" s="13" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="140" spans="2:7">
       <c r="B140" s="1">
         <v>1944</v>
       </c>
-      <c r="C140" s="2" t="s">
-        <v>184</v>
+      <c r="C140" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="D140" s="3">
         <v>0.64400000000000002</v>
       </c>
-      <c r="G140" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H140" s="5"/>
-    </row>
-    <row r="141" spans="2:8">
+    </row>
+    <row r="141" spans="2:7">
       <c r="B141" s="1">
         <v>1060</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D141" s="3">
         <v>0.55400000000000005</v>
       </c>
-      <c r="G141" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H141" s="5"/>
-    </row>
-    <row r="142" spans="2:8">
+    </row>
+    <row r="142" spans="2:7">
       <c r="B142" s="1">
         <v>778</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D142" s="3">
         <v>0.57999999999999996</v>
       </c>
-      <c r="G142" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H142" s="5"/>
-    </row>
-    <row r="143" spans="2:8">
+    </row>
+    <row r="143" spans="2:7">
       <c r="B143" s="1">
         <v>1123</v>
       </c>
-      <c r="C143" s="7" t="s">
-        <v>187</v>
+      <c r="C143" s="5" t="s">
+        <v>184</v>
       </c>
       <c r="D143" s="3">
         <v>0.69</v>
       </c>
       <c r="E143" t="s">
-        <v>282</v>
-      </c>
-      <c r="G143" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H143" s="5"/>
-    </row>
-    <row r="144" spans="2:8">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="144" spans="2:7">
       <c r="B144" s="1">
         <v>378</v>
       </c>
-      <c r="C144" s="2" t="s">
-        <v>188</v>
+      <c r="C144" s="5" t="s">
+        <v>185</v>
       </c>
       <c r="D144" s="3">
         <v>0.58399999999999996</v>
       </c>
-      <c r="G144" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H144" s="5"/>
-    </row>
-    <row r="145" spans="2:8">
+      <c r="E144" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="145" spans="2:6" ht="46">
       <c r="B145" s="1">
         <v>732</v>
       </c>
-      <c r="C145" s="2" t="s">
-        <v>189</v>
+      <c r="C145" s="7" t="s">
+        <v>186</v>
       </c>
       <c r="D145" s="3">
         <v>0.65200000000000002</v>
       </c>
       <c r="E145" t="s">
-        <v>337</v>
-      </c>
-      <c r="G145" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H145" s="5"/>
-    </row>
-    <row r="146" spans="2:8">
+        <v>331</v>
+      </c>
+      <c r="F145" s="4" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="146" spans="2:6">
       <c r="B146" s="1">
         <v>694</v>
       </c>
-      <c r="C146" s="2" t="s">
-        <v>190</v>
+      <c r="C146" s="5" t="s">
+        <v>187</v>
       </c>
       <c r="D146" s="3">
         <v>0.59</v>
       </c>
-      <c r="G146" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H146" s="5"/>
-    </row>
-    <row r="147" spans="2:8">
+      <c r="E146" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="147" spans="2:6">
       <c r="B147" s="1">
         <v>510</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D147" s="3">
         <v>0.61399999999999999</v>
       </c>
-      <c r="G147" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H147" s="5"/>
-    </row>
-    <row r="148" spans="2:8">
+    </row>
+    <row r="148" spans="2:6">
       <c r="B148" s="1">
         <v>340</v>
       </c>
-      <c r="C148" s="9" t="s">
-        <v>192</v>
+      <c r="C148" s="7" t="s">
+        <v>189</v>
       </c>
       <c r="D148" s="3">
         <v>0.46600000000000003</v>
       </c>
       <c r="E148" t="s">
-        <v>234</v>
-      </c>
-      <c r="G148" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H148" s="5"/>
-    </row>
-    <row r="149" spans="2:8">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="149" spans="2:6">
       <c r="B149" s="1">
         <v>503</v>
       </c>
-      <c r="C149" s="9" t="s">
-        <v>193</v>
+      <c r="C149" s="7" t="s">
+        <v>190</v>
       </c>
       <c r="D149" s="3">
         <v>0.60499999999999998</v>
       </c>
       <c r="E149" t="s">
-        <v>231</v>
-      </c>
-      <c r="G149" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H149" s="5"/>
-    </row>
-    <row r="150" spans="2:8">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="150" spans="2:6">
       <c r="B150" s="1">
         <v>581</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D150" s="3">
         <v>0.33500000000000002</v>
       </c>
-      <c r="G150" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H150" s="5"/>
-    </row>
-    <row r="151" spans="2:8">
+    </row>
+    <row r="151" spans="2:6">
       <c r="B151" s="1">
-        <v>1699</v>
+        <v>1027</v>
       </c>
       <c r="C151" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D151" s="3">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="E151" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="152" spans="2:6">
+      <c r="B152" s="1">
+        <v>1614</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="D152" s="3">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="E152" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="153" spans="2:6">
+      <c r="B153" s="1">
+        <v>1110</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D153" s="3">
+        <v>0.68700000000000006</v>
+      </c>
+    </row>
+    <row r="154" spans="2:6">
+      <c r="B154" s="1">
+        <v>1305</v>
+      </c>
+      <c r="C154" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="D151" s="3">
-        <v>0.86399999999999999</v>
-      </c>
-      <c r="G151" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H151" s="5"/>
-    </row>
-    <row r="152" spans="2:8">
-      <c r="B152" s="1">
-        <v>1027</v>
-      </c>
-      <c r="C152" s="2" t="s">
+      <c r="D154" s="3">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="E154" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="155" spans="2:6">
+      <c r="B155" s="1">
+        <v>116</v>
+      </c>
+      <c r="C155" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="D152" s="3">
-        <v>0.48699999999999999</v>
-      </c>
-      <c r="E152" t="s">
-        <v>296</v>
-      </c>
-      <c r="G152" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H152" s="5"/>
-    </row>
-    <row r="153" spans="2:8">
-      <c r="B153" s="1">
-        <v>1614</v>
-      </c>
-      <c r="C153" s="9" t="s">
+      <c r="D155" s="3">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="E155" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="156" spans="2:6" ht="105">
+      <c r="B156" s="1">
+        <v>239</v>
+      </c>
+      <c r="C156" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="D153" s="3">
-        <v>0.82799999999999996</v>
-      </c>
-      <c r="E153" t="s">
-        <v>238</v>
-      </c>
-      <c r="G153" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H153" s="5"/>
-    </row>
-    <row r="154" spans="2:8">
-      <c r="B154" s="1">
-        <v>1110</v>
-      </c>
-      <c r="C154" s="2" t="s">
+      <c r="D156" s="3">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="E156" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="F156" s="4" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="157" spans="2:6">
+      <c r="B157" s="1">
+        <v>489</v>
+      </c>
+      <c r="C157" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D154" s="3">
-        <v>0.68700000000000006</v>
-      </c>
-      <c r="G154" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H154" s="5"/>
-    </row>
-    <row r="155" spans="2:8">
-      <c r="B155" s="1">
-        <v>1305</v>
-      </c>
-      <c r="C155" s="9" t="s">
+      <c r="D157" s="3">
+        <v>0.74399999999999999</v>
+      </c>
+    </row>
+    <row r="158" spans="2:6">
+      <c r="B158" s="1">
+        <v>958</v>
+      </c>
+      <c r="C158" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D155" s="3">
-        <v>0.78400000000000003</v>
-      </c>
-      <c r="E155" t="s">
+      <c r="D158" s="3">
+        <v>0.52900000000000003</v>
+      </c>
+    </row>
+    <row r="159" spans="2:6">
+      <c r="B159" s="1">
+        <v>387</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D159" s="3">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="E159" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="160" spans="2:6" ht="23">
+      <c r="B160" s="1">
+        <v>494</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D160" s="3">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="E160" t="s">
+        <v>293</v>
+      </c>
+      <c r="F160" s="4" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="161" spans="2:5">
+      <c r="B161" s="1">
+        <v>739</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D161" s="3">
+        <v>0.66</v>
+      </c>
+      <c r="E161" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="162" spans="2:5">
+      <c r="B162" s="1">
+        <v>22</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="D162" s="3">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="E162" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="163" spans="2:5">
+      <c r="B163" s="1">
+        <v>815</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="D163" s="3">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="E163" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="164" spans="2:5">
+      <c r="B164" s="1">
+        <v>1541</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D164" s="3">
+        <v>0.46899999999999997</v>
+      </c>
+    </row>
+    <row r="165" spans="2:5">
+      <c r="B165" s="1">
+        <v>10</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D165" s="3">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="166" spans="2:5">
+      <c r="B166" s="1">
+        <v>1884</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D166" s="3">
+        <v>0.69899999999999995</v>
+      </c>
+    </row>
+    <row r="167" spans="2:5">
+      <c r="B167" s="1">
+        <v>157</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D167" s="3">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="E167" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="168" spans="2:5">
+      <c r="B168" s="1">
+        <v>4</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D168" s="3">
+        <v>0.32900000000000001</v>
+      </c>
+    </row>
+    <row r="169" spans="2:5">
+      <c r="B169" s="1">
+        <v>1269</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D169" s="3">
+        <v>0.434</v>
+      </c>
+    </row>
+    <row r="170" spans="2:5">
+      <c r="B170" s="1">
+        <v>939</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D170" s="3">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="E170" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="171" spans="2:5">
+      <c r="B171" s="1">
+        <v>463</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D171" s="3">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="E171" t="s">
         <v>334</v>
       </c>
-      <c r="G155" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H155" s="5"/>
-    </row>
-    <row r="156" spans="2:8">
-      <c r="B156" s="1">
+    </row>
+    <row r="172" spans="2:5">
+      <c r="B172" s="1">
+        <v>113</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D172" s="3">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="E172" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="173" spans="2:5">
+      <c r="B173" s="1">
+        <v>416</v>
+      </c>
+      <c r="C173" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="D173" s="3">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="E173" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="174" spans="2:5" ht="37">
+      <c r="B174" s="1">
+        <v>1213</v>
+      </c>
+      <c r="C174" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="D174" s="3">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="E174" s="8" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="175" spans="2:5">
+      <c r="B175" s="1">
+        <v>844</v>
+      </c>
+      <c r="C175" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="D175" s="3">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="E175" t="s">
         <v>116</v>
       </c>
-      <c r="C156" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D156" s="3">
-        <v>0.52800000000000002</v>
-      </c>
-      <c r="G156" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H156" s="5"/>
-    </row>
-    <row r="157" spans="2:8">
-      <c r="B157" s="1">
-        <v>239</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D157" s="3">
-        <v>0.45700000000000002</v>
-      </c>
-      <c r="G157" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H157" s="5"/>
-    </row>
-    <row r="158" spans="2:8">
-      <c r="B158" s="1">
-        <v>489</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="D158" s="3">
-        <v>0.74399999999999999</v>
-      </c>
-      <c r="G158" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H158" s="5"/>
-    </row>
-    <row r="159" spans="2:8">
-      <c r="B159" s="1">
-        <v>958</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="D159" s="3">
-        <v>0.52900000000000003</v>
-      </c>
-      <c r="G159" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H159" s="5"/>
-    </row>
-    <row r="160" spans="2:8">
-      <c r="B160" s="1">
-        <v>387</v>
-      </c>
-      <c r="C160" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="D160" s="3">
-        <v>0.55500000000000005</v>
-      </c>
-      <c r="E160" t="s">
-        <v>230</v>
-      </c>
-      <c r="G160" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H160" s="5"/>
-    </row>
-    <row r="161" spans="2:8">
-      <c r="B161" s="1">
-        <v>494</v>
-      </c>
-      <c r="C161" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="D161" s="3">
-        <v>0.45200000000000001</v>
-      </c>
-      <c r="E161" t="s">
-        <v>298</v>
-      </c>
-      <c r="G161" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H161" s="5"/>
-    </row>
-    <row r="162" spans="2:8">
-      <c r="B162" s="1">
-        <v>739</v>
-      </c>
-      <c r="C162" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D162" s="3">
-        <v>0.66</v>
-      </c>
-      <c r="E162" t="s">
-        <v>335</v>
-      </c>
-      <c r="G162" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H162" s="5"/>
-    </row>
-    <row r="163" spans="2:8">
-      <c r="B163" s="1">
-        <v>22</v>
-      </c>
-      <c r="C163" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="D163" s="3">
-        <v>0.68200000000000005</v>
-      </c>
-      <c r="E163" t="s">
-        <v>339</v>
-      </c>
-      <c r="G163" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H163" s="5"/>
-    </row>
-    <row r="164" spans="2:8">
-      <c r="B164" s="1">
-        <v>815</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D164" s="3">
-        <v>0.44400000000000001</v>
-      </c>
-      <c r="G164" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H164" s="5"/>
-    </row>
-    <row r="165" spans="2:8">
-      <c r="B165" s="1">
-        <v>1541</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="D165" s="3">
-        <v>0.46899999999999997</v>
-      </c>
-      <c r="G165" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H165" s="5"/>
-    </row>
-    <row r="166" spans="2:8">
-      <c r="B166" s="1">
-        <v>10</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="D166" s="3">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="G166" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H166" s="5"/>
-    </row>
-    <row r="167" spans="2:8">
-      <c r="B167" s="1">
-        <v>1884</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D167" s="3">
-        <v>0.69899999999999995</v>
-      </c>
-      <c r="G167" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H167" s="5"/>
-    </row>
-    <row r="168" spans="2:8">
-      <c r="B168" s="1">
-        <v>157</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D168" s="3">
-        <v>0.39300000000000002</v>
-      </c>
-      <c r="G168" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H168" s="5"/>
-    </row>
-    <row r="169" spans="2:8">
-      <c r="B169" s="1">
-        <v>4</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="D169" s="3">
-        <v>0.32900000000000001</v>
-      </c>
-      <c r="G169" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H169" s="5"/>
-    </row>
-    <row r="170" spans="2:8">
-      <c r="B170" s="1">
-        <v>1269</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D170" s="3">
-        <v>0.434</v>
-      </c>
-      <c r="G170" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H170" s="5"/>
-    </row>
-    <row r="171" spans="2:8">
-      <c r="B171" s="1">
-        <v>939</v>
-      </c>
-      <c r="C171" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="D171" s="3">
-        <v>0.52900000000000003</v>
-      </c>
-      <c r="E171" t="s">
-        <v>299</v>
-      </c>
-      <c r="G171" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H171" s="5"/>
-    </row>
-    <row r="172" spans="2:8">
-      <c r="B172" s="1">
-        <v>463</v>
-      </c>
-      <c r="C172" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="D172" s="3">
-        <v>0.68300000000000005</v>
-      </c>
-      <c r="E172" t="s">
-        <v>340</v>
-      </c>
-      <c r="G172" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H172" s="5"/>
-    </row>
-    <row r="173" spans="2:8">
-      <c r="B173" s="1">
-        <v>113</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D173" s="3">
-        <v>0.52200000000000002</v>
-      </c>
-      <c r="G173" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H173" s="5"/>
-    </row>
-    <row r="174" spans="2:8">
-      <c r="B174" s="1">
-        <v>416</v>
-      </c>
-      <c r="C174" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="D174" s="3">
-        <v>0.45600000000000002</v>
-      </c>
-      <c r="E174" t="s">
-        <v>257</v>
-      </c>
-      <c r="G174" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H174" s="5"/>
-    </row>
-    <row r="175" spans="2:8" ht="37">
-      <c r="B175" s="1">
-        <v>1213</v>
-      </c>
-      <c r="C175" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="D175" s="3">
-        <v>0.79800000000000004</v>
-      </c>
-      <c r="E175" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="G175" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H175" s="5"/>
-    </row>
-    <row r="176" spans="2:8">
+    </row>
+    <row r="176" spans="2:5">
       <c r="B176" s="1">
-        <v>844</v>
-      </c>
-      <c r="C176" s="9" t="s">
-        <v>220</v>
+        <v>1275</v>
+      </c>
+      <c r="C176" s="7" t="s">
+        <v>292</v>
       </c>
       <c r="D176" s="3">
-        <v>0.47399999999999998</v>
+        <v>0.55700000000000005</v>
       </c>
       <c r="E176" t="s">
-        <v>119</v>
-      </c>
-      <c r="G176" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="177" spans="2:5">
-      <c r="B177" s="1">
-        <v>1275</v>
-      </c>
-      <c r="C177" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="D177" s="3">
-        <v>0.55700000000000005</v>
-      </c>
-      <c r="E177" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -5167,34 +5926,33 @@
     <hyperlink ref="C148" r:id="rId147" tooltip="Longest Substring with At Most K Distinct Characters" display="https://leetcode.com/problems/longest-substring-with-at-most-k-distinct-characters" xr:uid="{ABDC8D2E-886B-C044-9D75-82A0A9ACADCE}"/>
     <hyperlink ref="C149" r:id="rId148" tooltip="Next Greater Element II" display="https://leetcode.com/problems/next-greater-element-ii" xr:uid="{29EA76B8-CB9E-4A43-B171-40B283F10871}"/>
     <hyperlink ref="C150" r:id="rId149" tooltip="Shortest Unsorted Continuous Subarray" display="https://leetcode.com/problems/shortest-unsorted-continuous-subarray" xr:uid="{C9A2B193-52AB-DA46-AE78-46886D6B63DC}"/>
-    <hyperlink ref="C151" r:id="rId150" tooltip="Number of Calls Between Two Persons" display="https://leetcode.com/problems/number-of-calls-between-two-persons" xr:uid="{2FC5F058-933F-E246-8A22-C5856A37C0D7}"/>
-    <hyperlink ref="C152" r:id="rId151" tooltip="Longest Arithmetic Subsequence" display="https://leetcode.com/problems/longest-arithmetic-subsequence" xr:uid="{377AAD20-EC89-6F4C-9D8D-790167E6C68D}"/>
-    <hyperlink ref="C153" r:id="rId152" tooltip="Maximum Nesting Depth of the Parentheses" display="https://leetcode.com/problems/maximum-nesting-depth-of-the-parentheses" xr:uid="{AE064C97-E086-FC44-8981-38D6D4FE026A}"/>
-    <hyperlink ref="C154" r:id="rId153" tooltip="Delete Nodes And Return Forest" display="https://leetcode.com/problems/delete-nodes-and-return-forest" xr:uid="{DD0E6889-EF63-094A-A8B9-F22F0B6A114F}"/>
-    <hyperlink ref="C155" r:id="rId154" tooltip="All Elements in Two Binary Search Trees" display="https://leetcode.com/problems/all-elements-in-two-binary-search-trees" xr:uid="{FF07ECEA-226B-DD44-AC43-E2952C69597A}"/>
-    <hyperlink ref="C156" r:id="rId155" tooltip="Populating Next Right Pointers in Each Node" display="https://leetcode.com/problems/populating-next-right-pointers-in-each-node" xr:uid="{D9289A6D-E058-2741-8062-FFA73F46E9CB}"/>
-    <hyperlink ref="C157" r:id="rId156" tooltip="Sliding Window Maximum" display="https://leetcode.com/problems/sliding-window-maximum" xr:uid="{D9FD6C8D-0744-9840-80ED-58545E3906DC}"/>
-    <hyperlink ref="C158" r:id="rId157" tooltip="Robot Room Cleaner" display="https://leetcode.com/problems/robot-room-cleaner" xr:uid="{749AA046-59CE-E04A-8D94-CC18D7E8A7B2}"/>
-    <hyperlink ref="C159" r:id="rId158" tooltip="Check Completeness of a Binary Tree" display="https://leetcode.com/problems/check-completeness-of-a-binary-tree" xr:uid="{DB1C1BE6-6C5E-0240-9763-34090AFC7F6F}"/>
-    <hyperlink ref="C160" r:id="rId159" tooltip="First Unique Character in a String" display="https://leetcode.com/problems/first-unique-character-in-a-string" xr:uid="{7FA37055-535F-EE4C-810E-BDCBAA50DD7C}"/>
-    <hyperlink ref="C161" r:id="rId160" tooltip="Target Sum" display="https://leetcode.com/problems/target-sum" xr:uid="{FFE8EED2-7A00-BF40-84A2-565F7C22DDE4}"/>
-    <hyperlink ref="C162" r:id="rId161" tooltip="Daily Temperatures" display="https://leetcode.com/problems/daily-temperatures" xr:uid="{D3298545-174B-E24E-AE58-CFEDE32D3420}"/>
-    <hyperlink ref="C163" r:id="rId162" tooltip="Generate Parentheses" display="https://leetcode.com/problems/generate-parentheses" xr:uid="{DC19AEEA-14F1-A94A-9AED-F09A206B74E6}"/>
-    <hyperlink ref="C164" r:id="rId163" tooltip="Bus Routes" display="https://leetcode.com/problems/bus-routes" xr:uid="{EA1554EA-A68C-3B44-A53D-477F5BC5F25C}"/>
-    <hyperlink ref="C165" r:id="rId164" tooltip="Minimum Insertions to Balance a Parentheses String" display="https://leetcode.com/problems/minimum-insertions-to-balance-a-parentheses-string" xr:uid="{5B7E4A4D-E421-8B44-A530-C11A3E153B59}"/>
-    <hyperlink ref="C166" r:id="rId165" tooltip="Regular Expression Matching" display="https://leetcode.com/problems/regular-expression-matching" xr:uid="{415E76D9-4812-D94C-9926-5FAB5630B2B3}"/>
-    <hyperlink ref="C167" r:id="rId166" tooltip="Egg Drop With 2 Eggs and N Floors" display="https://leetcode.com/problems/egg-drop-with-2-eggs-and-n-floors" xr:uid="{5BF824A1-4135-184C-B367-7084F6CFC703}"/>
-    <hyperlink ref="C168" r:id="rId167" tooltip="Read N Characters Given Read4" display="https://leetcode.com/problems/read-n-characters-given-read4" xr:uid="{AD14C2CD-7F8C-B14F-AC1F-D3E50C61C550}"/>
-    <hyperlink ref="C169" r:id="rId168" tooltip="Median of Two Sorted Arrays" display="https://leetcode.com/problems/median-of-two-sorted-arrays" xr:uid="{C98AA8ED-901C-E340-AB56-47DEF0D8DB09}"/>
-    <hyperlink ref="C170" r:id="rId169" tooltip="Number of Ways to Stay in the Same Place After Some Steps" display="https://leetcode.com/problems/number-of-ways-to-stay-in-the-same-place-after-some-steps" xr:uid="{7B2A0CD3-0E45-7D4A-A338-3647E5FD1003}"/>
-    <hyperlink ref="C171" r:id="rId170" tooltip="Minimum Area Rectangle" display="https://leetcode.com/problems/minimum-area-rectangle" xr:uid="{6E1018C2-1B07-D74D-9C78-87BAFCD26B2C}"/>
-    <hyperlink ref="C172" r:id="rId171" tooltip="Island Perimeter" display="https://leetcode.com/problems/island-perimeter" xr:uid="{7B9DE127-2F79-1A40-8A7E-E12F71D61BB7}"/>
-    <hyperlink ref="C173" r:id="rId172" tooltip="Path Sum II" display="https://leetcode.com/problems/path-sum-ii" xr:uid="{ABB2B600-BB56-1B45-A85E-E8C08D0DBE7A}"/>
-    <hyperlink ref="C174" r:id="rId173" tooltip="Partition Equal Subset Sum" display="https://leetcode.com/problems/partition-equal-subset-sum" xr:uid="{0126BBB9-D965-FF4E-B0DC-E2D340492828}"/>
-    <hyperlink ref="C175" r:id="rId174" tooltip="Intersection of Three Sorted Arrays" display="https://leetcode.com/problems/intersection-of-three-sorted-arrays" xr:uid="{3FDD2B18-CBE7-AF45-8975-C819CECB465C}"/>
-    <hyperlink ref="C176" r:id="rId175" tooltip="Backspace String Compare" display="https://leetcode.com/problems/backspace-string-compare" xr:uid="{9EDA1D29-9A07-CE47-AFF8-A4B4613A077A}"/>
-    <hyperlink ref="E28" r:id="rId176" xr:uid="{23C74F4B-3815-354C-931B-62E0C54B2E27}"/>
-    <hyperlink ref="C177" r:id="rId177" display="https://leetcode.com/problems/find-winner-on-a-tic-tac-toe-game" xr:uid="{1080C8A9-208B-7047-93F1-4CB7969B37EB}"/>
+    <hyperlink ref="C151" r:id="rId150" tooltip="Longest Arithmetic Subsequence" display="https://leetcode.com/problems/longest-arithmetic-subsequence" xr:uid="{377AAD20-EC89-6F4C-9D8D-790167E6C68D}"/>
+    <hyperlink ref="C152" r:id="rId151" tooltip="Maximum Nesting Depth of the Parentheses" display="https://leetcode.com/problems/maximum-nesting-depth-of-the-parentheses" xr:uid="{AE064C97-E086-FC44-8981-38D6D4FE026A}"/>
+    <hyperlink ref="C153" r:id="rId152" tooltip="Delete Nodes And Return Forest" display="https://leetcode.com/problems/delete-nodes-and-return-forest" xr:uid="{DD0E6889-EF63-094A-A8B9-F22F0B6A114F}"/>
+    <hyperlink ref="C154" r:id="rId153" tooltip="All Elements in Two Binary Search Trees" display="https://leetcode.com/problems/all-elements-in-two-binary-search-trees" xr:uid="{FF07ECEA-226B-DD44-AC43-E2952C69597A}"/>
+    <hyperlink ref="C155" r:id="rId154" tooltip="Populating Next Right Pointers in Each Node" display="https://leetcode.com/problems/populating-next-right-pointers-in-each-node" xr:uid="{D9289A6D-E058-2741-8062-FFA73F46E9CB}"/>
+    <hyperlink ref="C156" r:id="rId155" tooltip="Sliding Window Maximum" display="https://leetcode.com/problems/sliding-window-maximum" xr:uid="{D9FD6C8D-0744-9840-80ED-58545E3906DC}"/>
+    <hyperlink ref="C157" r:id="rId156" tooltip="Robot Room Cleaner" display="https://leetcode.com/problems/robot-room-cleaner" xr:uid="{749AA046-59CE-E04A-8D94-CC18D7E8A7B2}"/>
+    <hyperlink ref="C158" r:id="rId157" tooltip="Check Completeness of a Binary Tree" display="https://leetcode.com/problems/check-completeness-of-a-binary-tree" xr:uid="{DB1C1BE6-6C5E-0240-9763-34090AFC7F6F}"/>
+    <hyperlink ref="C159" r:id="rId158" tooltip="First Unique Character in a String" display="https://leetcode.com/problems/first-unique-character-in-a-string" xr:uid="{7FA37055-535F-EE4C-810E-BDCBAA50DD7C}"/>
+    <hyperlink ref="C160" r:id="rId159" tooltip="Target Sum" display="https://leetcode.com/problems/target-sum" xr:uid="{FFE8EED2-7A00-BF40-84A2-565F7C22DDE4}"/>
+    <hyperlink ref="C161" r:id="rId160" tooltip="Daily Temperatures" display="https://leetcode.com/problems/daily-temperatures" xr:uid="{D3298545-174B-E24E-AE58-CFEDE32D3420}"/>
+    <hyperlink ref="C162" r:id="rId161" tooltip="Generate Parentheses" display="https://leetcode.com/problems/generate-parentheses" xr:uid="{DC19AEEA-14F1-A94A-9AED-F09A206B74E6}"/>
+    <hyperlink ref="C163" r:id="rId162" tooltip="Bus Routes" display="https://leetcode.com/problems/bus-routes" xr:uid="{EA1554EA-A68C-3B44-A53D-477F5BC5F25C}"/>
+    <hyperlink ref="C164" r:id="rId163" tooltip="Minimum Insertions to Balance a Parentheses String" display="https://leetcode.com/problems/minimum-insertions-to-balance-a-parentheses-string" xr:uid="{5B7E4A4D-E421-8B44-A530-C11A3E153B59}"/>
+    <hyperlink ref="C165" r:id="rId164" tooltip="Regular Expression Matching" display="https://leetcode.com/problems/regular-expression-matching" xr:uid="{415E76D9-4812-D94C-9926-5FAB5630B2B3}"/>
+    <hyperlink ref="C166" r:id="rId165" tooltip="Egg Drop With 2 Eggs and N Floors" display="https://leetcode.com/problems/egg-drop-with-2-eggs-and-n-floors" xr:uid="{5BF824A1-4135-184C-B367-7084F6CFC703}"/>
+    <hyperlink ref="C167" r:id="rId166" tooltip="Read N Characters Given Read4" display="https://leetcode.com/problems/read-n-characters-given-read4" xr:uid="{AD14C2CD-7F8C-B14F-AC1F-D3E50C61C550}"/>
+    <hyperlink ref="C168" r:id="rId167" tooltip="Median of Two Sorted Arrays" display="https://leetcode.com/problems/median-of-two-sorted-arrays" xr:uid="{C98AA8ED-901C-E340-AB56-47DEF0D8DB09}"/>
+    <hyperlink ref="C169" r:id="rId168" tooltip="Number of Ways to Stay in the Same Place After Some Steps" display="https://leetcode.com/problems/number-of-ways-to-stay-in-the-same-place-after-some-steps" xr:uid="{7B2A0CD3-0E45-7D4A-A338-3647E5FD1003}"/>
+    <hyperlink ref="C170" r:id="rId169" tooltip="Minimum Area Rectangle" display="https://leetcode.com/problems/minimum-area-rectangle" xr:uid="{6E1018C2-1B07-D74D-9C78-87BAFCD26B2C}"/>
+    <hyperlink ref="C171" r:id="rId170" tooltip="Island Perimeter" display="https://leetcode.com/problems/island-perimeter" xr:uid="{7B9DE127-2F79-1A40-8A7E-E12F71D61BB7}"/>
+    <hyperlink ref="C172" r:id="rId171" tooltip="Path Sum II" display="https://leetcode.com/problems/path-sum-ii" xr:uid="{ABB2B600-BB56-1B45-A85E-E8C08D0DBE7A}"/>
+    <hyperlink ref="C173" r:id="rId172" tooltip="Partition Equal Subset Sum" display="https://leetcode.com/problems/partition-equal-subset-sum" xr:uid="{0126BBB9-D965-FF4E-B0DC-E2D340492828}"/>
+    <hyperlink ref="C174" r:id="rId173" tooltip="Intersection of Three Sorted Arrays" display="https://leetcode.com/problems/intersection-of-three-sorted-arrays" xr:uid="{3FDD2B18-CBE7-AF45-8975-C819CECB465C}"/>
+    <hyperlink ref="C175" r:id="rId174" tooltip="Backspace String Compare" display="https://leetcode.com/problems/backspace-string-compare" xr:uid="{9EDA1D29-9A07-CE47-AFF8-A4B4613A077A}"/>
+    <hyperlink ref="E28" r:id="rId175" xr:uid="{23C74F4B-3815-354C-931B-62E0C54B2E27}"/>
+    <hyperlink ref="C176" r:id="rId176" display="https://leetcode.com/problems/find-winner-on-a-tic-tac-toe-game" xr:uid="{1080C8A9-208B-7047-93F1-4CB7969B37EB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
